--- a/Test Cases/Rijo/Test Case - Nursing Station.xlsx
+++ b/Test Cases/Rijo/Test Case - Nursing Station.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\Mediware\CentralRepository-Mediware\Test Case\Rijo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\Mediware\Mediware-Repository\Test Cases\Rijo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55D14BD-DC30-4300-836D-F344045BCA64}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C362CED8-4B42-46CF-A323-61D045BB2211}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1587" uniqueCount="580">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -1351,9 +1351,6 @@
     <t>MED_NURS_TC_070</t>
   </si>
   <si>
-    <t>Verify that the nurse is able to enter verbal orders</t>
-  </si>
-  <si>
     <t>Navigate to Nursing Station&gt;&gt;Medication&gt;&gt;Verbal Orders</t>
   </si>
   <si>
@@ -1858,6 +1855,42 @@
   </si>
   <si>
     <t xml:space="preserve">Verify whether user is able to oview the medication sheet </t>
+  </si>
+  <si>
+    <t>MED_NURS_TC_101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verbal Order entry form should be displayed </t>
+  </si>
+  <si>
+    <t>Select the Doctor and click on "Re-checked with Doctor"</t>
+  </si>
+  <si>
+    <t>Doctor should be selected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Add Prescription and Authenticate the user </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add prescription details </t>
+  </si>
+  <si>
+    <t>Verify that the nurse is able to add prescription in verbal orders</t>
+  </si>
+  <si>
+    <t>Verify that the nurse is able to add investigations in verbal orders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Add Investigation and Authenticate the user </t>
+  </si>
+  <si>
+    <t>Investigations should be added successfully</t>
+  </si>
+  <si>
+    <t>User should be authenticated successfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add investigation details </t>
   </si>
 </sst>
 </file>
@@ -1992,7 +2025,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2114,10 +2147,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2242,7 +2284,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>101</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3179,7 +3221,7 @@
       </c>
       <c r="B2" s="18">
         <f>'Nursing Station'!O2</f>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C2" s="18">
         <f>'Nursing Station'!O3</f>
@@ -3237,7 +3279,7 @@
       </c>
       <c r="B4" s="6">
         <f t="shared" ref="B4:G4" si="0">SUM(B2:B3)</f>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C4" s="6">
         <f t="shared" si="0"/>
@@ -3273,16 +3315,16 @@
       <c r="B7" s="15"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J9" s="41" t="s">
+      <c r="J9" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="41"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3296,11 +3338,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R721"/>
+  <dimension ref="A1:R723"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A588" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D600" sqref="D600"/>
+      <pane ySplit="1" topLeftCell="A600" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F610" sqref="F610"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3375,7 +3417,7 @@
       <c r="C2" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="46" t="s">
         <v>54</v>
       </c>
       <c r="E2" s="20">
@@ -3397,7 +3439,7 @@
       </c>
       <c r="O2" s="17">
         <f>COUNTA(A:A)-1</f>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q2" s="29" t="s">
         <v>12</v>
@@ -3411,7 +3453,7 @@
       <c r="A3" s="36"/>
       <c r="B3" s="19"/>
       <c r="C3" s="28"/>
-      <c r="D3" s="44"/>
+      <c r="D3" s="47"/>
       <c r="E3" s="20">
         <v>2</v>
       </c>
@@ -3445,7 +3487,7 @@
       <c r="A4" s="36"/>
       <c r="B4" s="19"/>
       <c r="C4" s="28"/>
-      <c r="D4" s="44"/>
+      <c r="D4" s="47"/>
       <c r="E4" s="20">
         <v>3</v>
       </c>
@@ -3475,7 +3517,7 @@
     <row r="5" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="36"/>
       <c r="B5" s="19"/>
-      <c r="D5" s="44"/>
+      <c r="D5" s="47"/>
       <c r="E5" s="20">
         <v>4</v>
       </c>
@@ -3501,7 +3543,7 @@
     <row r="6" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="36"/>
       <c r="B6" s="19"/>
-      <c r="D6" s="44"/>
+      <c r="D6" s="47"/>
       <c r="E6" s="20">
         <v>5</v>
       </c>
@@ -3529,7 +3571,7 @@
       <c r="C8" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="44" t="s">
         <v>55</v>
       </c>
       <c r="E8" s="20">
@@ -3546,7 +3588,7 @@
     </row>
     <row r="9" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="19"/>
-      <c r="D9" s="42"/>
+      <c r="D9" s="44"/>
       <c r="E9" s="20">
         <v>2</v>
       </c>
@@ -3561,7 +3603,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10" s="19"/>
-      <c r="D10" s="42"/>
+      <c r="D10" s="44"/>
       <c r="E10" s="20">
         <v>3</v>
       </c>
@@ -3579,7 +3621,7 @@
     </row>
     <row r="11" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="B11" s="19"/>
-      <c r="D11" s="42"/>
+      <c r="D11" s="44"/>
       <c r="E11" s="20">
         <v>4</v>
       </c>
@@ -3610,7 +3652,7 @@
       <c r="C13" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="D13" s="44" t="s">
         <v>53</v>
       </c>
       <c r="E13" s="20">
@@ -3627,7 +3669,7 @@
     </row>
     <row r="14" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="19"/>
-      <c r="D14" s="42"/>
+      <c r="D14" s="44"/>
       <c r="E14" s="20">
         <v>2</v>
       </c>
@@ -3642,7 +3684,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" s="19"/>
-      <c r="D15" s="42"/>
+      <c r="D15" s="44"/>
       <c r="E15" s="20">
         <v>3</v>
       </c>
@@ -3657,7 +3699,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16" s="19"/>
-      <c r="D16" s="42"/>
+      <c r="D16" s="44"/>
       <c r="E16" s="20">
         <v>3</v>
       </c>
@@ -3685,7 +3727,7 @@
       <c r="C18" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="42" t="s">
+      <c r="D18" s="44" t="s">
         <v>56</v>
       </c>
       <c r="E18" s="20">
@@ -3702,7 +3744,7 @@
     </row>
     <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="19"/>
-      <c r="D19" s="42"/>
+      <c r="D19" s="44"/>
       <c r="E19" s="20">
         <v>2</v>
       </c>
@@ -3717,7 +3759,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B20" s="19"/>
-      <c r="D20" s="42"/>
+      <c r="D20" s="44"/>
       <c r="E20" s="20">
         <v>3</v>
       </c>
@@ -3732,7 +3774,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B21" s="19"/>
-      <c r="D21" s="42"/>
+      <c r="D21" s="44"/>
       <c r="E21" s="20">
         <v>4</v>
       </c>
@@ -3760,7 +3802,7 @@
       <c r="C23" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="42" t="s">
+      <c r="D23" s="44" t="s">
         <v>61</v>
       </c>
       <c r="E23" s="20">
@@ -3777,7 +3819,7 @@
     </row>
     <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="19"/>
-      <c r="D24" s="42"/>
+      <c r="D24" s="44"/>
       <c r="E24" s="20">
         <v>2</v>
       </c>
@@ -3792,7 +3834,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B25" s="19"/>
-      <c r="D25" s="42"/>
+      <c r="D25" s="44"/>
       <c r="E25" s="20">
         <v>3</v>
       </c>
@@ -3807,7 +3849,7 @@
     </row>
     <row r="26" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B26" s="19"/>
-      <c r="D26" s="42"/>
+      <c r="D26" s="44"/>
       <c r="E26" s="20">
         <v>4</v>
       </c>
@@ -3838,7 +3880,7 @@
       <c r="C28" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="42" t="s">
+      <c r="D28" s="44" t="s">
         <v>68</v>
       </c>
       <c r="E28" s="20">
@@ -3855,7 +3897,7 @@
     </row>
     <row r="29" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B29" s="19"/>
-      <c r="D29" s="42"/>
+      <c r="D29" s="44"/>
       <c r="E29" s="20">
         <v>2</v>
       </c>
@@ -3870,7 +3912,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B30" s="19"/>
-      <c r="D30" s="42"/>
+      <c r="D30" s="44"/>
       <c r="E30" s="20">
         <v>3</v>
       </c>
@@ -3885,7 +3927,7 @@
     </row>
     <row r="31" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B31" s="19"/>
-      <c r="D31" s="42"/>
+      <c r="D31" s="44"/>
       <c r="E31" s="20">
         <v>4</v>
       </c>
@@ -3916,7 +3958,7 @@
       <c r="C33" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="42" t="s">
+      <c r="D33" s="44" t="s">
         <v>73</v>
       </c>
       <c r="E33" s="20">
@@ -3933,7 +3975,7 @@
     </row>
     <row r="34" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B34" s="19"/>
-      <c r="D34" s="42"/>
+      <c r="D34" s="44"/>
       <c r="E34" s="20">
         <v>2</v>
       </c>
@@ -3948,7 +3990,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B35" s="19"/>
-      <c r="D35" s="42"/>
+      <c r="D35" s="44"/>
       <c r="E35" s="20">
         <v>3</v>
       </c>
@@ -3963,7 +4005,7 @@
     </row>
     <row r="36" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B36" s="19"/>
-      <c r="D36" s="42"/>
+      <c r="D36" s="44"/>
       <c r="E36" s="20">
         <v>4</v>
       </c>
@@ -3981,7 +4023,7 @@
     </row>
     <row r="37" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B37" s="19"/>
-      <c r="D37" s="42"/>
+      <c r="D37" s="44"/>
       <c r="E37" s="20">
         <v>5</v>
       </c>
@@ -3996,7 +4038,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B38" s="19"/>
-      <c r="D38" s="42"/>
+      <c r="D38" s="44"/>
       <c r="E38" s="20">
         <v>6</v>
       </c>
@@ -4024,7 +4066,7 @@
       <c r="C40" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D40" s="42" t="s">
+      <c r="D40" s="44" t="s">
         <v>80</v>
       </c>
       <c r="E40" s="20">
@@ -4041,7 +4083,7 @@
     </row>
     <row r="41" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B41" s="19"/>
-      <c r="D41" s="42"/>
+      <c r="D41" s="44"/>
       <c r="E41" s="20">
         <v>2</v>
       </c>
@@ -4056,7 +4098,7 @@
     </row>
     <row r="42" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B42" s="19"/>
-      <c r="D42" s="42"/>
+      <c r="D42" s="44"/>
       <c r="E42" s="20">
         <v>3</v>
       </c>
@@ -4071,7 +4113,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B43" s="19"/>
-      <c r="D43" s="42"/>
+      <c r="D43" s="44"/>
       <c r="E43" s="20">
         <v>4</v>
       </c>
@@ -4086,7 +4128,7 @@
     </row>
     <row r="44" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B44" s="19"/>
-      <c r="D44" s="42"/>
+      <c r="D44" s="44"/>
       <c r="E44" s="20">
         <v>5</v>
       </c>
@@ -4117,7 +4159,7 @@
       <c r="C46" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D46" s="42" t="s">
+      <c r="D46" s="44" t="s">
         <v>88</v>
       </c>
       <c r="E46" s="20">
@@ -4134,7 +4176,7 @@
     </row>
     <row r="47" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B47" s="19"/>
-      <c r="D47" s="42"/>
+      <c r="D47" s="44"/>
       <c r="E47" s="20">
         <v>2</v>
       </c>
@@ -4149,7 +4191,7 @@
     </row>
     <row r="48" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="19"/>
-      <c r="D48" s="42"/>
+      <c r="D48" s="44"/>
       <c r="E48" s="20">
         <v>3</v>
       </c>
@@ -4164,7 +4206,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B49" s="19"/>
-      <c r="D49" s="42"/>
+      <c r="D49" s="44"/>
       <c r="E49" s="20">
         <v>4</v>
       </c>
@@ -4179,7 +4221,7 @@
     </row>
     <row r="50" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B50" s="19"/>
-      <c r="D50" s="42"/>
+      <c r="D50" s="44"/>
       <c r="E50" s="20">
         <v>5</v>
       </c>
@@ -4197,7 +4239,7 @@
     </row>
     <row r="51" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B51" s="19"/>
-      <c r="D51" s="42"/>
+      <c r="D51" s="44"/>
       <c r="E51" s="20">
         <v>6</v>
       </c>
@@ -4212,7 +4254,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B52" s="19"/>
-      <c r="D52" s="42"/>
+      <c r="D52" s="44"/>
       <c r="E52" s="20">
         <v>7</v>
       </c>
@@ -4240,7 +4282,7 @@
       <c r="C54" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D54" s="42" t="s">
+      <c r="D54" s="44" t="s">
         <v>94</v>
       </c>
       <c r="E54" s="20">
@@ -4257,7 +4299,7 @@
     </row>
     <row r="55" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B55" s="19"/>
-      <c r="D55" s="42"/>
+      <c r="D55" s="44"/>
       <c r="E55" s="20">
         <v>2</v>
       </c>
@@ -4272,7 +4314,7 @@
     </row>
     <row r="56" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B56" s="19"/>
-      <c r="D56" s="42"/>
+      <c r="D56" s="44"/>
       <c r="E56" s="20">
         <v>3</v>
       </c>
@@ -4290,7 +4332,7 @@
     </row>
     <row r="57" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B57" s="19"/>
-      <c r="D57" s="42"/>
+      <c r="D57" s="44"/>
       <c r="E57" s="20">
         <v>4</v>
       </c>
@@ -4318,7 +4360,7 @@
       <c r="C59" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D59" s="42" t="s">
+      <c r="D59" s="44" t="s">
         <v>103</v>
       </c>
       <c r="E59" s="20">
@@ -4335,7 +4377,7 @@
     </row>
     <row r="60" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B60" s="19"/>
-      <c r="D60" s="42"/>
+      <c r="D60" s="44"/>
       <c r="E60" s="20">
         <v>2</v>
       </c>
@@ -4350,7 +4392,7 @@
     </row>
     <row r="61" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="B61" s="19"/>
-      <c r="D61" s="42"/>
+      <c r="D61" s="44"/>
       <c r="E61" s="20">
         <v>3</v>
       </c>
@@ -4381,7 +4423,7 @@
       <c r="C63" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D63" s="42" t="s">
+      <c r="D63" s="44" t="s">
         <v>107</v>
       </c>
       <c r="E63" s="20">
@@ -4398,7 +4440,7 @@
     </row>
     <row r="64" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B64" s="19"/>
-      <c r="D64" s="42"/>
+      <c r="D64" s="44"/>
       <c r="E64" s="20">
         <v>2</v>
       </c>
@@ -4413,7 +4455,7 @@
     </row>
     <row r="65" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="B65" s="19"/>
-      <c r="D65" s="42"/>
+      <c r="D65" s="44"/>
       <c r="E65" s="20">
         <v>3</v>
       </c>
@@ -4444,7 +4486,7 @@
       <c r="C67" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D67" s="42" t="s">
+      <c r="D67" s="44" t="s">
         <v>111</v>
       </c>
       <c r="E67" s="20">
@@ -4461,7 +4503,7 @@
     </row>
     <row r="68" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B68" s="19"/>
-      <c r="D68" s="42"/>
+      <c r="D68" s="44"/>
       <c r="E68" s="20">
         <v>2</v>
       </c>
@@ -4476,7 +4518,7 @@
     </row>
     <row r="69" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B69" s="19"/>
-      <c r="D69" s="42"/>
+      <c r="D69" s="44"/>
       <c r="E69" s="20">
         <v>3</v>
       </c>
@@ -4491,7 +4533,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B70" s="19"/>
-      <c r="D70" s="42"/>
+      <c r="D70" s="44"/>
       <c r="E70" s="20">
         <v>4</v>
       </c>
@@ -4519,7 +4561,7 @@
       <c r="C72" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D72" s="42" t="s">
+      <c r="D72" s="44" t="s">
         <v>118</v>
       </c>
       <c r="E72" s="20">
@@ -4536,7 +4578,7 @@
     </row>
     <row r="73" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B73" s="19"/>
-      <c r="D73" s="42"/>
+      <c r="D73" s="44"/>
       <c r="E73" s="20">
         <v>2</v>
       </c>
@@ -4551,7 +4593,7 @@
     </row>
     <row r="74" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B74" s="19"/>
-      <c r="D74" s="42"/>
+      <c r="D74" s="44"/>
       <c r="E74" s="20">
         <v>3</v>
       </c>
@@ -4566,7 +4608,7 @@
     </row>
     <row r="75" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B75" s="19"/>
-      <c r="D75" s="42"/>
+      <c r="D75" s="44"/>
       <c r="E75" s="20">
         <v>4</v>
       </c>
@@ -4594,7 +4636,7 @@
       <c r="C77" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D77" s="42" t="s">
+      <c r="D77" s="44" t="s">
         <v>123</v>
       </c>
       <c r="E77" s="20">
@@ -4611,7 +4653,7 @@
     </row>
     <row r="78" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B78" s="19"/>
-      <c r="D78" s="42"/>
+      <c r="D78" s="44"/>
       <c r="E78" s="20">
         <v>2</v>
       </c>
@@ -4626,7 +4668,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B79" s="19"/>
-      <c r="D79" s="42"/>
+      <c r="D79" s="44"/>
       <c r="E79" s="20">
         <v>3</v>
       </c>
@@ -4641,7 +4683,7 @@
     </row>
     <row r="80" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B80" s="19"/>
-      <c r="D80" s="42"/>
+      <c r="D80" s="44"/>
       <c r="E80" s="20">
         <v>4</v>
       </c>
@@ -4672,7 +4714,7 @@
       <c r="C82" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D82" s="45" t="s">
+      <c r="D82" s="48" t="s">
         <v>143</v>
       </c>
       <c r="E82" s="20">
@@ -4689,7 +4731,7 @@
     </row>
     <row r="83" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B83" s="19"/>
-      <c r="D83" s="45"/>
+      <c r="D83" s="48"/>
       <c r="E83" s="20">
         <v>2</v>
       </c>
@@ -4704,7 +4746,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B84" s="19"/>
-      <c r="D84" s="45"/>
+      <c r="D84" s="48"/>
       <c r="E84" s="20">
         <v>3</v>
       </c>
@@ -4719,7 +4761,7 @@
     </row>
     <row r="85" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B85" s="19"/>
-      <c r="D85" s="45"/>
+      <c r="D85" s="48"/>
       <c r="E85" s="20">
         <v>4</v>
       </c>
@@ -4750,7 +4792,7 @@
       <c r="C87" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="42" t="s">
+      <c r="D87" s="44" t="s">
         <v>133</v>
       </c>
       <c r="E87" s="20">
@@ -4767,7 +4809,7 @@
     </row>
     <row r="88" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B88" s="19"/>
-      <c r="D88" s="42"/>
+      <c r="D88" s="44"/>
       <c r="E88" s="20">
         <v>2</v>
       </c>
@@ -4782,7 +4824,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B89" s="19"/>
-      <c r="D89" s="42"/>
+      <c r="D89" s="44"/>
       <c r="E89" s="20">
         <v>3</v>
       </c>
@@ -4797,7 +4839,7 @@
     </row>
     <row r="90" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B90" s="19"/>
-      <c r="D90" s="42"/>
+      <c r="D90" s="44"/>
       <c r="E90" s="20">
         <v>4</v>
       </c>
@@ -4828,7 +4870,7 @@
       <c r="C92" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D92" s="42" t="s">
+      <c r="D92" s="44" t="s">
         <v>139</v>
       </c>
       <c r="E92" s="20">
@@ -4845,7 +4887,7 @@
     </row>
     <row r="93" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B93" s="19"/>
-      <c r="D93" s="42"/>
+      <c r="D93" s="44"/>
       <c r="E93" s="20">
         <v>2</v>
       </c>
@@ -4860,7 +4902,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B94" s="19"/>
-      <c r="D94" s="42"/>
+      <c r="D94" s="44"/>
       <c r="E94" s="20">
         <v>3</v>
       </c>
@@ -4875,7 +4917,7 @@
     </row>
     <row r="95" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B95" s="19"/>
-      <c r="D95" s="42"/>
+      <c r="D95" s="44"/>
       <c r="E95" s="20">
         <v>4</v>
       </c>
@@ -4893,7 +4935,7 @@
     </row>
     <row r="96" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B96" s="19"/>
-      <c r="D96" s="42"/>
+      <c r="D96" s="44"/>
       <c r="E96" s="20">
         <v>5</v>
       </c>
@@ -4921,7 +4963,7 @@
       <c r="C98" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D98" s="42" t="s">
+      <c r="D98" s="44" t="s">
         <v>139</v>
       </c>
       <c r="E98" s="20">
@@ -4938,7 +4980,7 @@
     </row>
     <row r="99" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B99" s="19"/>
-      <c r="D99" s="42"/>
+      <c r="D99" s="44"/>
       <c r="E99" s="20">
         <v>2</v>
       </c>
@@ -4953,7 +4995,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B100" s="19"/>
-      <c r="D100" s="42"/>
+      <c r="D100" s="44"/>
       <c r="E100" s="20">
         <v>3</v>
       </c>
@@ -4968,7 +5010,7 @@
     </row>
     <row r="101" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B101" s="19"/>
-      <c r="D101" s="42"/>
+      <c r="D101" s="44"/>
       <c r="E101" s="20">
         <v>4</v>
       </c>
@@ -4986,7 +5028,7 @@
     </row>
     <row r="102" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B102" s="19"/>
-      <c r="D102" s="42"/>
+      <c r="D102" s="44"/>
       <c r="E102" s="20">
         <v>5</v>
       </c>
@@ -5014,7 +5056,7 @@
       <c r="C104" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D104" s="42" t="s">
+      <c r="D104" s="44" t="s">
         <v>146</v>
       </c>
       <c r="E104" s="20">
@@ -5031,7 +5073,7 @@
     </row>
     <row r="105" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B105" s="19"/>
-      <c r="D105" s="42"/>
+      <c r="D105" s="44"/>
       <c r="E105" s="20">
         <v>2</v>
       </c>
@@ -5046,7 +5088,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B106" s="19"/>
-      <c r="D106" s="42"/>
+      <c r="D106" s="44"/>
       <c r="E106" s="20">
         <v>3</v>
       </c>
@@ -5061,7 +5103,7 @@
     </row>
     <row r="107" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B107" s="19"/>
-      <c r="D107" s="42"/>
+      <c r="D107" s="44"/>
       <c r="E107" s="20">
         <v>4</v>
       </c>
@@ -5079,7 +5121,7 @@
     </row>
     <row r="108" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="19"/>
-      <c r="D108" s="42"/>
+      <c r="D108" s="44"/>
       <c r="E108" s="20">
         <v>5</v>
       </c>
@@ -5107,7 +5149,7 @@
       <c r="C110" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D110" s="42" t="s">
+      <c r="D110" s="44" t="s">
         <v>150</v>
       </c>
       <c r="E110" s="20">
@@ -5124,7 +5166,7 @@
     </row>
     <row r="111" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="19"/>
-      <c r="D111" s="42"/>
+      <c r="D111" s="44"/>
       <c r="E111" s="20">
         <v>2</v>
       </c>
@@ -5139,7 +5181,7 @@
     </row>
     <row r="112" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B112" s="19"/>
-      <c r="D112" s="42"/>
+      <c r="D112" s="44"/>
       <c r="E112" s="20">
         <v>3</v>
       </c>
@@ -5167,7 +5209,7 @@
       <c r="C114" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D114" s="42" t="s">
+      <c r="D114" s="44" t="s">
         <v>163</v>
       </c>
       <c r="E114" s="20">
@@ -5184,7 +5226,7 @@
     </row>
     <row r="115" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B115" s="19"/>
-      <c r="D115" s="42"/>
+      <c r="D115" s="44"/>
       <c r="E115" s="20">
         <v>2</v>
       </c>
@@ -5199,7 +5241,7 @@
     </row>
     <row r="116" spans="1:11" ht="225" x14ac:dyDescent="0.25">
       <c r="B116" s="19"/>
-      <c r="D116" s="42"/>
+      <c r="D116" s="44"/>
       <c r="E116" s="20">
         <v>3</v>
       </c>
@@ -5230,7 +5272,7 @@
       <c r="C118" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D118" s="42" t="s">
+      <c r="D118" s="44" t="s">
         <v>162</v>
       </c>
       <c r="E118" s="20">
@@ -5247,7 +5289,7 @@
     </row>
     <row r="119" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B119" s="19"/>
-      <c r="D119" s="42"/>
+      <c r="D119" s="44"/>
       <c r="E119" s="20">
         <v>2</v>
       </c>
@@ -5262,7 +5304,7 @@
     </row>
     <row r="120" spans="1:11" ht="225" x14ac:dyDescent="0.25">
       <c r="B120" s="19"/>
-      <c r="D120" s="42"/>
+      <c r="D120" s="44"/>
       <c r="E120" s="20">
         <v>3</v>
       </c>
@@ -5277,7 +5319,7 @@
     </row>
     <row r="121" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B121" s="19"/>
-      <c r="D121" s="42"/>
+      <c r="D121" s="44"/>
       <c r="E121" s="20">
         <v>4</v>
       </c>
@@ -5305,7 +5347,7 @@
       <c r="C123" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D123" s="42" t="s">
+      <c r="D123" s="44" t="s">
         <v>167</v>
       </c>
       <c r="E123" s="20">
@@ -5322,7 +5364,7 @@
     </row>
     <row r="124" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B124" s="19"/>
-      <c r="D124" s="42"/>
+      <c r="D124" s="44"/>
       <c r="E124" s="20">
         <v>2</v>
       </c>
@@ -5337,7 +5379,7 @@
     </row>
     <row r="125" spans="1:11" ht="225" x14ac:dyDescent="0.25">
       <c r="B125" s="19"/>
-      <c r="D125" s="42"/>
+      <c r="D125" s="44"/>
       <c r="E125" s="20">
         <v>3</v>
       </c>
@@ -5355,7 +5397,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B126" s="19"/>
-      <c r="D126" s="42"/>
+      <c r="D126" s="44"/>
       <c r="E126" s="20">
         <v>4</v>
       </c>
@@ -5383,7 +5425,7 @@
       <c r="C128" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D128" s="42" t="s">
+      <c r="D128" s="44" t="s">
         <v>171</v>
       </c>
       <c r="E128" s="20">
@@ -5400,7 +5442,7 @@
     </row>
     <row r="129" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B129" s="19"/>
-      <c r="D129" s="42"/>
+      <c r="D129" s="44"/>
       <c r="E129" s="20">
         <v>2</v>
       </c>
@@ -5415,7 +5457,7 @@
     </row>
     <row r="130" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="B130" s="19"/>
-      <c r="D130" s="42"/>
+      <c r="D130" s="44"/>
       <c r="E130" s="20">
         <v>3</v>
       </c>
@@ -5443,7 +5485,7 @@
       <c r="C132" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D132" s="42" t="s">
+      <c r="D132" s="44" t="s">
         <v>177</v>
       </c>
       <c r="E132" s="20">
@@ -5460,7 +5502,7 @@
     </row>
     <row r="133" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B133" s="19"/>
-      <c r="D133" s="42"/>
+      <c r="D133" s="44"/>
       <c r="E133" s="20">
         <v>2</v>
       </c>
@@ -5475,7 +5517,7 @@
     </row>
     <row r="134" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="B134" s="19"/>
-      <c r="D134" s="42"/>
+      <c r="D134" s="44"/>
       <c r="E134" s="20">
         <v>3</v>
       </c>
@@ -5490,7 +5532,7 @@
     </row>
     <row r="135" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B135" s="19"/>
-      <c r="D135" s="42"/>
+      <c r="D135" s="44"/>
       <c r="E135" s="20">
         <v>4</v>
       </c>
@@ -5518,7 +5560,7 @@
       <c r="C137" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D137" s="42" t="s">
+      <c r="D137" s="44" t="s">
         <v>180</v>
       </c>
       <c r="E137" s="20">
@@ -5535,7 +5577,7 @@
     </row>
     <row r="138" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B138" s="19"/>
-      <c r="D138" s="42"/>
+      <c r="D138" s="44"/>
       <c r="E138" s="20">
         <v>2</v>
       </c>
@@ -5550,7 +5592,7 @@
     </row>
     <row r="139" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="B139" s="19"/>
-      <c r="D139" s="42"/>
+      <c r="D139" s="44"/>
       <c r="E139" s="20">
         <v>3</v>
       </c>
@@ -5565,7 +5607,7 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B140" s="19"/>
-      <c r="D140" s="42"/>
+      <c r="D140" s="44"/>
       <c r="E140" s="20">
         <v>4</v>
       </c>
@@ -5593,7 +5635,7 @@
       <c r="C142" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D142" s="42" t="s">
+      <c r="D142" s="44" t="s">
         <v>183</v>
       </c>
       <c r="E142" s="20">
@@ -5610,7 +5652,7 @@
     </row>
     <row r="143" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B143" s="19"/>
-      <c r="D143" s="42"/>
+      <c r="D143" s="44"/>
       <c r="E143" s="20">
         <v>2</v>
       </c>
@@ -5625,7 +5667,7 @@
     </row>
     <row r="144" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="B144" s="19"/>
-      <c r="D144" s="42"/>
+      <c r="D144" s="44"/>
       <c r="E144" s="20">
         <v>3</v>
       </c>
@@ -5640,7 +5682,7 @@
     </row>
     <row r="145" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B145" s="19"/>
-      <c r="D145" s="42"/>
+      <c r="D145" s="44"/>
       <c r="E145" s="20">
         <v>4</v>
       </c>
@@ -5655,7 +5697,7 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B146" s="19"/>
-      <c r="D146" s="42"/>
+      <c r="D146" s="44"/>
       <c r="E146" s="20">
         <v>5</v>
       </c>
@@ -5683,7 +5725,7 @@
       <c r="C148" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D148" s="42" t="s">
+      <c r="D148" s="44" t="s">
         <v>189</v>
       </c>
       <c r="E148" s="20">
@@ -5700,7 +5742,7 @@
     </row>
     <row r="149" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="19"/>
-      <c r="D149" s="42"/>
+      <c r="D149" s="44"/>
       <c r="E149" s="20">
         <v>2</v>
       </c>
@@ -5715,7 +5757,7 @@
     </row>
     <row r="150" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B150" s="19"/>
-      <c r="D150" s="42"/>
+      <c r="D150" s="44"/>
       <c r="E150" s="20">
         <v>3</v>
       </c>
@@ -5730,7 +5772,7 @@
     </row>
     <row r="151" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B151" s="19"/>
-      <c r="D151" s="42"/>
+      <c r="D151" s="44"/>
       <c r="E151" s="20">
         <v>4</v>
       </c>
@@ -5745,7 +5787,7 @@
     </row>
     <row r="152" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B152" s="19"/>
-      <c r="D152" s="42"/>
+      <c r="D152" s="44"/>
       <c r="E152" s="20">
         <v>5</v>
       </c>
@@ -5760,7 +5802,7 @@
     </row>
     <row r="153" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B153" s="19"/>
-      <c r="D153" s="42"/>
+      <c r="D153" s="44"/>
       <c r="E153" s="20">
         <v>6</v>
       </c>
@@ -5775,7 +5817,7 @@
     </row>
     <row r="154" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B154" s="19"/>
-      <c r="D154" s="42"/>
+      <c r="D154" s="44"/>
       <c r="E154" s="20">
         <v>7</v>
       </c>
@@ -5790,7 +5832,7 @@
     </row>
     <row r="155" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B155" s="19"/>
-      <c r="D155" s="42"/>
+      <c r="D155" s="44"/>
       <c r="E155" s="20">
         <v>8</v>
       </c>
@@ -5818,7 +5860,7 @@
       <c r="C157" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D157" s="42" t="s">
+      <c r="D157" s="44" t="s">
         <v>200</v>
       </c>
       <c r="E157" s="20">
@@ -5835,7 +5877,7 @@
     </row>
     <row r="158" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B158" s="19"/>
-      <c r="D158" s="42"/>
+      <c r="D158" s="44"/>
       <c r="E158" s="20">
         <v>2</v>
       </c>
@@ -5850,7 +5892,7 @@
     </row>
     <row r="159" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B159" s="19"/>
-      <c r="D159" s="42"/>
+      <c r="D159" s="44"/>
       <c r="E159" s="20">
         <v>3</v>
       </c>
@@ -5865,7 +5907,7 @@
     </row>
     <row r="160" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B160" s="19"/>
-      <c r="D160" s="42"/>
+      <c r="D160" s="44"/>
       <c r="E160" s="20">
         <v>4</v>
       </c>
@@ -5880,7 +5922,7 @@
     </row>
     <row r="161" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B161" s="19"/>
-      <c r="D161" s="42"/>
+      <c r="D161" s="44"/>
       <c r="E161" s="20">
         <v>5</v>
       </c>
@@ -5895,7 +5937,7 @@
     </row>
     <row r="162" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B162" s="19"/>
-      <c r="D162" s="42"/>
+      <c r="D162" s="44"/>
       <c r="E162" s="20">
         <v>6</v>
       </c>
@@ -5910,7 +5952,7 @@
     </row>
     <row r="163" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B163" s="19"/>
-      <c r="D163" s="42"/>
+      <c r="D163" s="44"/>
       <c r="E163" s="20">
         <v>7</v>
       </c>
@@ -5925,7 +5967,7 @@
     </row>
     <row r="164" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B164" s="19"/>
-      <c r="D164" s="42"/>
+      <c r="D164" s="44"/>
       <c r="E164" s="20">
         <v>8</v>
       </c>
@@ -5940,7 +5982,7 @@
     </row>
     <row r="165" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B165" s="19"/>
-      <c r="D165" s="42"/>
+      <c r="D165" s="44"/>
       <c r="E165" s="20">
         <v>9</v>
       </c>
@@ -5968,7 +6010,7 @@
       <c r="C167" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D167" s="42" t="s">
+      <c r="D167" s="44" t="s">
         <v>206</v>
       </c>
       <c r="E167" s="20">
@@ -5985,7 +6027,7 @@
     </row>
     <row r="168" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B168" s="19"/>
-      <c r="D168" s="42"/>
+      <c r="D168" s="44"/>
       <c r="E168" s="20">
         <v>2</v>
       </c>
@@ -6000,7 +6042,7 @@
     </row>
     <row r="169" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B169" s="19"/>
-      <c r="D169" s="42"/>
+      <c r="D169" s="44"/>
       <c r="E169" s="20">
         <v>3</v>
       </c>
@@ -6015,7 +6057,7 @@
     </row>
     <row r="170" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B170" s="19"/>
-      <c r="D170" s="42"/>
+      <c r="D170" s="44"/>
       <c r="E170" s="20">
         <v>4</v>
       </c>
@@ -6030,7 +6072,7 @@
     </row>
     <row r="171" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B171" s="19"/>
-      <c r="D171" s="42"/>
+      <c r="D171" s="44"/>
       <c r="E171" s="20">
         <v>5</v>
       </c>
@@ -6045,7 +6087,7 @@
     </row>
     <row r="172" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B172" s="19"/>
-      <c r="D172" s="42"/>
+      <c r="D172" s="44"/>
       <c r="E172" s="20">
         <v>6</v>
       </c>
@@ -6060,7 +6102,7 @@
     </row>
     <row r="173" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B173" s="19"/>
-      <c r="D173" s="42"/>
+      <c r="D173" s="44"/>
       <c r="E173" s="20">
         <v>7</v>
       </c>
@@ -6075,7 +6117,7 @@
     </row>
     <row r="174" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B174" s="19"/>
-      <c r="D174" s="42"/>
+      <c r="D174" s="44"/>
       <c r="E174" s="20">
         <v>8</v>
       </c>
@@ -6090,7 +6132,7 @@
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B175" s="19"/>
-      <c r="D175" s="42"/>
+      <c r="D175" s="44"/>
       <c r="E175" s="20">
         <v>9</v>
       </c>
@@ -6118,7 +6160,7 @@
       <c r="C177" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D177" s="42" t="s">
+      <c r="D177" s="44" t="s">
         <v>208</v>
       </c>
       <c r="E177" s="20">
@@ -6135,7 +6177,7 @@
     </row>
     <row r="178" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B178" s="19"/>
-      <c r="D178" s="42"/>
+      <c r="D178" s="44"/>
       <c r="E178" s="20">
         <v>2</v>
       </c>
@@ -6150,7 +6192,7 @@
     </row>
     <row r="179" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B179" s="19"/>
-      <c r="D179" s="42"/>
+      <c r="D179" s="44"/>
       <c r="E179" s="20">
         <v>3</v>
       </c>
@@ -6165,7 +6207,7 @@
     </row>
     <row r="180" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B180" s="19"/>
-      <c r="D180" s="42"/>
+      <c r="D180" s="44"/>
       <c r="E180" s="20">
         <v>4</v>
       </c>
@@ -6180,7 +6222,7 @@
     </row>
     <row r="181" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B181" s="19"/>
-      <c r="D181" s="42"/>
+      <c r="D181" s="44"/>
       <c r="E181" s="20">
         <v>5</v>
       </c>
@@ -6195,7 +6237,7 @@
     </row>
     <row r="182" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B182" s="19"/>
-      <c r="D182" s="42"/>
+      <c r="D182" s="44"/>
       <c r="E182" s="20">
         <v>6</v>
       </c>
@@ -6210,7 +6252,7 @@
     </row>
     <row r="183" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B183" s="19"/>
-      <c r="D183" s="42"/>
+      <c r="D183" s="44"/>
       <c r="E183" s="20">
         <v>7</v>
       </c>
@@ -6225,7 +6267,7 @@
     </row>
     <row r="184" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B184" s="19"/>
-      <c r="D184" s="42"/>
+      <c r="D184" s="44"/>
       <c r="E184" s="20">
         <v>8</v>
       </c>
@@ -6240,7 +6282,7 @@
     </row>
     <row r="185" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B185" s="19"/>
-      <c r="D185" s="42"/>
+      <c r="D185" s="44"/>
       <c r="E185" s="20">
         <v>9</v>
       </c>
@@ -6255,7 +6297,7 @@
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B186" s="19"/>
-      <c r="D186" s="42"/>
+      <c r="D186" s="44"/>
       <c r="E186" s="20">
         <v>10</v>
       </c>
@@ -6283,7 +6325,7 @@
       <c r="C188" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D188" s="42" t="s">
+      <c r="D188" s="44" t="s">
         <v>210</v>
       </c>
       <c r="E188" s="20">
@@ -6300,7 +6342,7 @@
     </row>
     <row r="189" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B189" s="19"/>
-      <c r="D189" s="42"/>
+      <c r="D189" s="44"/>
       <c r="E189" s="20">
         <v>2</v>
       </c>
@@ -6315,7 +6357,7 @@
     </row>
     <row r="190" spans="1:11" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B190" s="19"/>
-      <c r="D190" s="42"/>
+      <c r="D190" s="44"/>
       <c r="E190" s="20">
         <v>3</v>
       </c>
@@ -6343,7 +6385,7 @@
       <c r="C192" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D192" s="42" t="s">
+      <c r="D192" s="44" t="s">
         <v>214</v>
       </c>
       <c r="E192" s="20">
@@ -6360,7 +6402,7 @@
     </row>
     <row r="193" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B193" s="19"/>
-      <c r="D193" s="42"/>
+      <c r="D193" s="44"/>
       <c r="E193" s="20">
         <v>2</v>
       </c>
@@ -6375,7 +6417,7 @@
     </row>
     <row r="194" spans="1:11" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="19"/>
-      <c r="D194" s="42"/>
+      <c r="D194" s="44"/>
       <c r="E194" s="20">
         <v>3</v>
       </c>
@@ -6390,7 +6432,7 @@
     </row>
     <row r="195" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B195" s="19"/>
-      <c r="D195" s="42"/>
+      <c r="D195" s="44"/>
       <c r="E195" s="20">
         <v>4</v>
       </c>
@@ -6418,7 +6460,7 @@
       <c r="C197" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D197" s="42" t="s">
+      <c r="D197" s="44" t="s">
         <v>219</v>
       </c>
       <c r="E197" s="20">
@@ -6435,7 +6477,7 @@
     </row>
     <row r="198" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B198" s="19"/>
-      <c r="D198" s="42"/>
+      <c r="D198" s="44"/>
       <c r="E198" s="20">
         <v>2</v>
       </c>
@@ -6450,7 +6492,7 @@
     </row>
     <row r="199" spans="1:11" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" s="19"/>
-      <c r="D199" s="42"/>
+      <c r="D199" s="44"/>
       <c r="E199" s="20">
         <v>3</v>
       </c>
@@ -6465,7 +6507,7 @@
     </row>
     <row r="200" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B200" s="19"/>
-      <c r="D200" s="42"/>
+      <c r="D200" s="44"/>
       <c r="E200" s="20">
         <v>4</v>
       </c>
@@ -6480,7 +6522,7 @@
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B201" s="19"/>
-      <c r="D201" s="42"/>
+      <c r="D201" s="44"/>
       <c r="E201" s="20">
         <v>5</v>
       </c>
@@ -6508,7 +6550,7 @@
       <c r="C203" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D203" s="42" t="s">
+      <c r="D203" s="44" t="s">
         <v>220</v>
       </c>
       <c r="E203" s="20">
@@ -6525,7 +6567,7 @@
     </row>
     <row r="204" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B204" s="19"/>
-      <c r="D204" s="42"/>
+      <c r="D204" s="44"/>
       <c r="E204" s="20">
         <v>2</v>
       </c>
@@ -6540,7 +6582,7 @@
     </row>
     <row r="205" spans="1:11" ht="141" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="19"/>
-      <c r="D205" s="42"/>
+      <c r="D205" s="44"/>
       <c r="E205" s="20">
         <v>3</v>
       </c>
@@ -6555,7 +6597,7 @@
     </row>
     <row r="206" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B206" s="19"/>
-      <c r="D206" s="42"/>
+      <c r="D206" s="44"/>
       <c r="E206" s="20">
         <v>4</v>
       </c>
@@ -6570,7 +6612,7 @@
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B207" s="19"/>
-      <c r="D207" s="42"/>
+      <c r="D207" s="44"/>
       <c r="E207" s="20">
         <v>5</v>
       </c>
@@ -6598,7 +6640,7 @@
       <c r="C209" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D209" s="42" t="s">
+      <c r="D209" s="44" t="s">
         <v>223</v>
       </c>
       <c r="E209" s="20">
@@ -6615,7 +6657,7 @@
     </row>
     <row r="210" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B210" s="19"/>
-      <c r="D210" s="42"/>
+      <c r="D210" s="44"/>
       <c r="E210" s="20">
         <v>2</v>
       </c>
@@ -6630,7 +6672,7 @@
     </row>
     <row r="211" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B211" s="19"/>
-      <c r="D211" s="42"/>
+      <c r="D211" s="44"/>
       <c r="E211" s="20">
         <v>3</v>
       </c>
@@ -6645,7 +6687,7 @@
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B212" s="19"/>
-      <c r="D212" s="42"/>
+      <c r="D212" s="44"/>
       <c r="E212" s="20">
         <v>4</v>
       </c>
@@ -6660,7 +6702,7 @@
     </row>
     <row r="213" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B213" s="19"/>
-      <c r="D213" s="42"/>
+      <c r="D213" s="44"/>
       <c r="E213" s="20">
         <v>5</v>
       </c>
@@ -6675,7 +6717,7 @@
     </row>
     <row r="214" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B214" s="19"/>
-      <c r="D214" s="42"/>
+      <c r="D214" s="44"/>
       <c r="E214" s="20">
         <v>6</v>
       </c>
@@ -6690,7 +6732,7 @@
     </row>
     <row r="215" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B215" s="19"/>
-      <c r="D215" s="42"/>
+      <c r="D215" s="44"/>
       <c r="E215" s="20">
         <v>7</v>
       </c>
@@ -6705,7 +6747,7 @@
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B216" s="19"/>
-      <c r="D216" s="42"/>
+      <c r="D216" s="44"/>
       <c r="E216" s="20">
         <v>8</v>
       </c>
@@ -6720,7 +6762,7 @@
     </row>
     <row r="217" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B217" s="19"/>
-      <c r="D217" s="42"/>
+      <c r="D217" s="44"/>
       <c r="E217" s="20">
         <v>9</v>
       </c>
@@ -6735,7 +6777,7 @@
     </row>
     <row r="218" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B218" s="19"/>
-      <c r="D218" s="42"/>
+      <c r="D218" s="44"/>
       <c r="E218" s="20">
         <v>10</v>
       </c>
@@ -6750,7 +6792,7 @@
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B219" s="19"/>
-      <c r="D219" s="42"/>
+      <c r="D219" s="44"/>
       <c r="E219" s="20">
         <v>11</v>
       </c>
@@ -6765,7 +6807,7 @@
     </row>
     <row r="220" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B220" s="19"/>
-      <c r="D220" s="42"/>
+      <c r="D220" s="44"/>
       <c r="E220" s="20">
         <v>12</v>
       </c>
@@ -6780,7 +6822,7 @@
     </row>
     <row r="221" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B221" s="19"/>
-      <c r="D221" s="42"/>
+      <c r="D221" s="44"/>
       <c r="E221" s="20">
         <v>13</v>
       </c>
@@ -6795,7 +6837,7 @@
     </row>
     <row r="222" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B222" s="19"/>
-      <c r="D222" s="42"/>
+      <c r="D222" s="44"/>
       <c r="E222" s="20">
         <v>14</v>
       </c>
@@ -6810,7 +6852,7 @@
     </row>
     <row r="223" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B223" s="19"/>
-      <c r="D223" s="42"/>
+      <c r="D223" s="44"/>
       <c r="E223" s="20">
         <v>15</v>
       </c>
@@ -6838,7 +6880,7 @@
       <c r="C225" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D225" s="42" t="s">
+      <c r="D225" s="44" t="s">
         <v>254</v>
       </c>
       <c r="E225" s="20">
@@ -6855,7 +6897,7 @@
     </row>
     <row r="226" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B226" s="19"/>
-      <c r="D226" s="42"/>
+      <c r="D226" s="44"/>
       <c r="E226" s="20">
         <v>2</v>
       </c>
@@ -6870,7 +6912,7 @@
     </row>
     <row r="227" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B227" s="19"/>
-      <c r="D227" s="42"/>
+      <c r="D227" s="44"/>
       <c r="E227" s="20">
         <v>3</v>
       </c>
@@ -6885,7 +6927,7 @@
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B228" s="19"/>
-      <c r="D228" s="42"/>
+      <c r="D228" s="44"/>
       <c r="E228" s="20">
         <v>4</v>
       </c>
@@ -6900,7 +6942,7 @@
     </row>
     <row r="229" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B229" s="19"/>
-      <c r="D229" s="42"/>
+      <c r="D229" s="44"/>
       <c r="E229" s="20">
         <v>5</v>
       </c>
@@ -6915,7 +6957,7 @@
     </row>
     <row r="230" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B230" s="19"/>
-      <c r="D230" s="42"/>
+      <c r="D230" s="44"/>
       <c r="E230" s="20">
         <v>6</v>
       </c>
@@ -6930,7 +6972,7 @@
     </row>
     <row r="231" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B231" s="19"/>
-      <c r="D231" s="42"/>
+      <c r="D231" s="44"/>
       <c r="E231" s="20">
         <v>7</v>
       </c>
@@ -6945,7 +6987,7 @@
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B232" s="19"/>
-      <c r="D232" s="42"/>
+      <c r="D232" s="44"/>
       <c r="E232" s="20">
         <v>8</v>
       </c>
@@ -6960,7 +7002,7 @@
     </row>
     <row r="233" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B233" s="19"/>
-      <c r="D233" s="42"/>
+      <c r="D233" s="44"/>
       <c r="E233" s="20">
         <v>9</v>
       </c>
@@ -6975,7 +7017,7 @@
     </row>
     <row r="234" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B234" s="19"/>
-      <c r="D234" s="42"/>
+      <c r="D234" s="44"/>
       <c r="E234" s="20">
         <v>10</v>
       </c>
@@ -6990,7 +7032,7 @@
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B235" s="19"/>
-      <c r="D235" s="42"/>
+      <c r="D235" s="44"/>
       <c r="E235" s="20">
         <v>11</v>
       </c>
@@ -7005,7 +7047,7 @@
     </row>
     <row r="236" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B236" s="19"/>
-      <c r="D236" s="42"/>
+      <c r="D236" s="44"/>
       <c r="E236" s="20">
         <v>12</v>
       </c>
@@ -7020,7 +7062,7 @@
     </row>
     <row r="237" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B237" s="19"/>
-      <c r="D237" s="42"/>
+      <c r="D237" s="44"/>
       <c r="E237" s="20">
         <v>13</v>
       </c>
@@ -7035,7 +7077,7 @@
     </row>
     <row r="238" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B238" s="19"/>
-      <c r="D238" s="42"/>
+      <c r="D238" s="44"/>
       <c r="E238" s="20">
         <v>14</v>
       </c>
@@ -7050,7 +7092,7 @@
     </row>
     <row r="239" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B239" s="19"/>
-      <c r="D239" s="42"/>
+      <c r="D239" s="44"/>
       <c r="E239" s="20">
         <v>15</v>
       </c>
@@ -7065,7 +7107,7 @@
     </row>
     <row r="240" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B240" s="19"/>
-      <c r="D240" s="42"/>
+      <c r="D240" s="44"/>
       <c r="E240" s="20">
         <v>16</v>
       </c>
@@ -7093,7 +7135,7 @@
       <c r="C242" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D242" s="42" t="s">
+      <c r="D242" s="44" t="s">
         <v>260</v>
       </c>
       <c r="E242" s="20">
@@ -7110,7 +7152,7 @@
     </row>
     <row r="243" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B243" s="19"/>
-      <c r="D243" s="42"/>
+      <c r="D243" s="44"/>
       <c r="E243" s="20">
         <v>2</v>
       </c>
@@ -7125,7 +7167,7 @@
     </row>
     <row r="244" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B244" s="19"/>
-      <c r="D244" s="42"/>
+      <c r="D244" s="44"/>
       <c r="E244" s="20">
         <v>3</v>
       </c>
@@ -7140,7 +7182,7 @@
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B245" s="19"/>
-      <c r="D245" s="42"/>
+      <c r="D245" s="44"/>
       <c r="E245" s="20">
         <v>4</v>
       </c>
@@ -7155,7 +7197,7 @@
     </row>
     <row r="246" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B246" s="19"/>
-      <c r="D246" s="42"/>
+      <c r="D246" s="44"/>
       <c r="E246" s="20">
         <v>5</v>
       </c>
@@ -7170,7 +7212,7 @@
     </row>
     <row r="247" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B247" s="19"/>
-      <c r="D247" s="42"/>
+      <c r="D247" s="44"/>
       <c r="E247" s="20">
         <v>6</v>
       </c>
@@ -7185,7 +7227,7 @@
     </row>
     <row r="248" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B248" s="19"/>
-      <c r="D248" s="42"/>
+      <c r="D248" s="44"/>
       <c r="E248" s="20">
         <v>7</v>
       </c>
@@ -7200,7 +7242,7 @@
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B249" s="19"/>
-      <c r="D249" s="42"/>
+      <c r="D249" s="44"/>
       <c r="E249" s="20">
         <v>8</v>
       </c>
@@ -7215,7 +7257,7 @@
     </row>
     <row r="250" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B250" s="19"/>
-      <c r="D250" s="42"/>
+      <c r="D250" s="44"/>
       <c r="E250" s="20">
         <v>9</v>
       </c>
@@ -7230,7 +7272,7 @@
     </row>
     <row r="251" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B251" s="19"/>
-      <c r="D251" s="42"/>
+      <c r="D251" s="44"/>
       <c r="E251" s="20">
         <v>10</v>
       </c>
@@ -7245,7 +7287,7 @@
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B252" s="19"/>
-      <c r="D252" s="42"/>
+      <c r="D252" s="44"/>
       <c r="E252" s="20">
         <v>11</v>
       </c>
@@ -7260,7 +7302,7 @@
     </row>
     <row r="253" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B253" s="19"/>
-      <c r="D253" s="42"/>
+      <c r="D253" s="44"/>
       <c r="E253" s="20">
         <v>12</v>
       </c>
@@ -7275,7 +7317,7 @@
     </row>
     <row r="254" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B254" s="19"/>
-      <c r="D254" s="42"/>
+      <c r="D254" s="44"/>
       <c r="E254" s="20">
         <v>13</v>
       </c>
@@ -7290,7 +7332,7 @@
     </row>
     <row r="255" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B255" s="19"/>
-      <c r="D255" s="42"/>
+      <c r="D255" s="44"/>
       <c r="E255" s="20">
         <v>14</v>
       </c>
@@ -7305,7 +7347,7 @@
     </row>
     <row r="256" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B256" s="19"/>
-      <c r="D256" s="42"/>
+      <c r="D256" s="44"/>
       <c r="E256" s="20">
         <v>15</v>
       </c>
@@ -7320,7 +7362,7 @@
     </row>
     <row r="257" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B257" s="19"/>
-      <c r="D257" s="42"/>
+      <c r="D257" s="44"/>
       <c r="E257" s="20">
         <v>16</v>
       </c>
@@ -7335,7 +7377,7 @@
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B258" s="19"/>
-      <c r="D258" s="42"/>
+      <c r="D258" s="44"/>
       <c r="E258" s="20">
         <v>17</v>
       </c>
@@ -7363,7 +7405,7 @@
       <c r="C260" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D260" s="42" t="s">
+      <c r="D260" s="44" t="s">
         <v>223</v>
       </c>
       <c r="E260" s="20">
@@ -7380,7 +7422,7 @@
     </row>
     <row r="261" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B261" s="19"/>
-      <c r="D261" s="42"/>
+      <c r="D261" s="44"/>
       <c r="E261" s="20">
         <v>2</v>
       </c>
@@ -7395,7 +7437,7 @@
     </row>
     <row r="262" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B262" s="19"/>
-      <c r="D262" s="42"/>
+      <c r="D262" s="44"/>
       <c r="E262" s="20">
         <v>3</v>
       </c>
@@ -7410,7 +7452,7 @@
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B263" s="19"/>
-      <c r="D263" s="42"/>
+      <c r="D263" s="44"/>
       <c r="E263" s="20">
         <v>4</v>
       </c>
@@ -7425,7 +7467,7 @@
     </row>
     <row r="264" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B264" s="19"/>
-      <c r="D264" s="42"/>
+      <c r="D264" s="44"/>
       <c r="E264" s="20">
         <v>5</v>
       </c>
@@ -7440,7 +7482,7 @@
     </row>
     <row r="265" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B265" s="19"/>
-      <c r="D265" s="42"/>
+      <c r="D265" s="44"/>
       <c r="E265" s="20">
         <v>6</v>
       </c>
@@ -7455,7 +7497,7 @@
     </row>
     <row r="266" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B266" s="19"/>
-      <c r="D266" s="42"/>
+      <c r="D266" s="44"/>
       <c r="E266" s="20">
         <v>7</v>
       </c>
@@ -7470,7 +7512,7 @@
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B267" s="19"/>
-      <c r="D267" s="42"/>
+      <c r="D267" s="44"/>
       <c r="E267" s="20">
         <v>8</v>
       </c>
@@ -7485,7 +7527,7 @@
     </row>
     <row r="268" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B268" s="19"/>
-      <c r="D268" s="42"/>
+      <c r="D268" s="44"/>
       <c r="E268" s="20">
         <v>9</v>
       </c>
@@ -7500,7 +7542,7 @@
     </row>
     <row r="269" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B269" s="19"/>
-      <c r="D269" s="42"/>
+      <c r="D269" s="44"/>
       <c r="E269" s="20">
         <v>10</v>
       </c>
@@ -7515,7 +7557,7 @@
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B270" s="19"/>
-      <c r="D270" s="42"/>
+      <c r="D270" s="44"/>
       <c r="E270" s="20">
         <v>11</v>
       </c>
@@ -7530,7 +7572,7 @@
     </row>
     <row r="271" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B271" s="19"/>
-      <c r="D271" s="42"/>
+      <c r="D271" s="44"/>
       <c r="E271" s="20">
         <v>12</v>
       </c>
@@ -7545,7 +7587,7 @@
     </row>
     <row r="272" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B272" s="19"/>
-      <c r="D272" s="42"/>
+      <c r="D272" s="44"/>
       <c r="E272" s="20">
         <v>13</v>
       </c>
@@ -7560,7 +7602,7 @@
     </row>
     <row r="273" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B273" s="19"/>
-      <c r="D273" s="42"/>
+      <c r="D273" s="44"/>
       <c r="E273" s="20">
         <v>14</v>
       </c>
@@ -7575,7 +7617,7 @@
     </row>
     <row r="274" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B274" s="19"/>
-      <c r="D274" s="42"/>
+      <c r="D274" s="44"/>
       <c r="E274" s="20">
         <v>15</v>
       </c>
@@ -7603,7 +7645,7 @@
       <c r="C276" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D276" s="42" t="s">
+      <c r="D276" s="44" t="s">
         <v>272</v>
       </c>
       <c r="E276" s="20">
@@ -7620,7 +7662,7 @@
     </row>
     <row r="277" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B277" s="19"/>
-      <c r="D277" s="42"/>
+      <c r="D277" s="44"/>
       <c r="E277" s="20">
         <v>2</v>
       </c>
@@ -7635,7 +7677,7 @@
     </row>
     <row r="278" spans="1:11" ht="255" x14ac:dyDescent="0.25">
       <c r="B278" s="19"/>
-      <c r="D278" s="42"/>
+      <c r="D278" s="44"/>
       <c r="E278" s="20">
         <v>3</v>
       </c>
@@ -7666,7 +7708,7 @@
       <c r="C280" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D280" s="42" t="s">
+      <c r="D280" s="44" t="s">
         <v>274</v>
       </c>
       <c r="E280" s="20">
@@ -7683,7 +7725,7 @@
     </row>
     <row r="281" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B281" s="19"/>
-      <c r="D281" s="42"/>
+      <c r="D281" s="44"/>
       <c r="E281" s="20">
         <v>2</v>
       </c>
@@ -7698,7 +7740,7 @@
     </row>
     <row r="282" spans="1:11" ht="255" x14ac:dyDescent="0.25">
       <c r="B282" s="19"/>
-      <c r="D282" s="42"/>
+      <c r="D282" s="44"/>
       <c r="E282" s="20">
         <v>3</v>
       </c>
@@ -7716,7 +7758,7 @@
     </row>
     <row r="283" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B283" s="19"/>
-      <c r="D283" s="42"/>
+      <c r="D283" s="44"/>
       <c r="E283" s="20">
         <v>4</v>
       </c>
@@ -7744,7 +7786,7 @@
       <c r="C285" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D285" s="42" t="s">
+      <c r="D285" s="44" t="s">
         <v>275</v>
       </c>
       <c r="E285" s="20">
@@ -7761,7 +7803,7 @@
     </row>
     <row r="286" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B286" s="19"/>
-      <c r="D286" s="42"/>
+      <c r="D286" s="44"/>
       <c r="E286" s="20">
         <v>2</v>
       </c>
@@ -7776,7 +7818,7 @@
     </row>
     <row r="287" spans="1:11" ht="255" x14ac:dyDescent="0.25">
       <c r="B287" s="19"/>
-      <c r="D287" s="42"/>
+      <c r="D287" s="44"/>
       <c r="E287" s="20">
         <v>3</v>
       </c>
@@ -7794,7 +7836,7 @@
     </row>
     <row r="288" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B288" s="19"/>
-      <c r="D288" s="42"/>
+      <c r="D288" s="44"/>
       <c r="E288" s="20">
         <v>4</v>
       </c>
@@ -7809,7 +7851,7 @@
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B289" s="19"/>
-      <c r="D289" s="42"/>
+      <c r="D289" s="44"/>
       <c r="E289" s="20">
         <v>5</v>
       </c>
@@ -7837,7 +7879,7 @@
       <c r="C291" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D291" s="42" t="s">
+      <c r="D291" s="44" t="s">
         <v>278</v>
       </c>
       <c r="E291" s="20">
@@ -7854,7 +7896,7 @@
     </row>
     <row r="292" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B292" s="19"/>
-      <c r="D292" s="42"/>
+      <c r="D292" s="44"/>
       <c r="E292" s="20">
         <v>2</v>
       </c>
@@ -7869,7 +7911,7 @@
     </row>
     <row r="293" spans="1:11" ht="255" x14ac:dyDescent="0.25">
       <c r="B293" s="19"/>
-      <c r="D293" s="42"/>
+      <c r="D293" s="44"/>
       <c r="E293" s="20">
         <v>3</v>
       </c>
@@ -7887,7 +7929,7 @@
     </row>
     <row r="294" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B294" s="19"/>
-      <c r="D294" s="42"/>
+      <c r="D294" s="44"/>
       <c r="E294" s="20">
         <v>4</v>
       </c>
@@ -7902,7 +7944,7 @@
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B295" s="19"/>
-      <c r="D295" s="42"/>
+      <c r="D295" s="44"/>
       <c r="E295" s="20">
         <v>5</v>
       </c>
@@ -7930,7 +7972,7 @@
       <c r="C297" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D297" s="42" t="s">
+      <c r="D297" s="44" t="s">
         <v>282</v>
       </c>
       <c r="E297" s="20">
@@ -7947,7 +7989,7 @@
     </row>
     <row r="298" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B298" s="19"/>
-      <c r="D298" s="42"/>
+      <c r="D298" s="44"/>
       <c r="E298" s="20">
         <v>2</v>
       </c>
@@ -7962,7 +8004,7 @@
     </row>
     <row r="299" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B299" s="19"/>
-      <c r="D299" s="42"/>
+      <c r="D299" s="44"/>
       <c r="E299" s="20">
         <v>3</v>
       </c>
@@ -7977,7 +8019,7 @@
     </row>
     <row r="300" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B300" s="19"/>
-      <c r="D300" s="42"/>
+      <c r="D300" s="44"/>
       <c r="E300" s="20">
         <v>4</v>
       </c>
@@ -7992,7 +8034,7 @@
     </row>
     <row r="301" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B301" s="19"/>
-      <c r="D301" s="42"/>
+      <c r="D301" s="44"/>
       <c r="E301" s="20">
         <v>5</v>
       </c>
@@ -8007,7 +8049,7 @@
     </row>
     <row r="302" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B302" s="19"/>
-      <c r="D302" s="42"/>
+      <c r="D302" s="44"/>
       <c r="E302" s="20">
         <v>6</v>
       </c>
@@ -8035,7 +8077,7 @@
       <c r="C304" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D304" s="42" t="s">
+      <c r="D304" s="44" t="s">
         <v>293</v>
       </c>
       <c r="E304" s="20">
@@ -8052,7 +8094,7 @@
     </row>
     <row r="305" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B305" s="19"/>
-      <c r="D305" s="42"/>
+      <c r="D305" s="44"/>
       <c r="E305" s="20">
         <v>2</v>
       </c>
@@ -8067,7 +8109,7 @@
     </row>
     <row r="306" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B306" s="19"/>
-      <c r="D306" s="42"/>
+      <c r="D306" s="44"/>
       <c r="E306" s="20">
         <v>3</v>
       </c>
@@ -8082,7 +8124,7 @@
     </row>
     <row r="307" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B307" s="19"/>
-      <c r="D307" s="42"/>
+      <c r="D307" s="44"/>
       <c r="E307" s="20">
         <v>4</v>
       </c>
@@ -8097,7 +8139,7 @@
     </row>
     <row r="308" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B308" s="19"/>
-      <c r="D308" s="42"/>
+      <c r="D308" s="44"/>
       <c r="E308" s="20">
         <v>5</v>
       </c>
@@ -8112,7 +8154,7 @@
     </row>
     <row r="309" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B309" s="19"/>
-      <c r="D309" s="42"/>
+      <c r="D309" s="44"/>
       <c r="E309" s="20">
         <v>6</v>
       </c>
@@ -8127,7 +8169,7 @@
     </row>
     <row r="310" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B310" s="19"/>
-      <c r="D310" s="42"/>
+      <c r="D310" s="44"/>
       <c r="E310" s="20">
         <v>7</v>
       </c>
@@ -8155,7 +8197,7 @@
       <c r="C312" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D312" s="42" t="s">
+      <c r="D312" s="44" t="s">
         <v>297</v>
       </c>
       <c r="E312" s="20">
@@ -8172,7 +8214,7 @@
     </row>
     <row r="313" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B313" s="19"/>
-      <c r="D313" s="42"/>
+      <c r="D313" s="44"/>
       <c r="E313" s="20">
         <v>2</v>
       </c>
@@ -8187,7 +8229,7 @@
     </row>
     <row r="314" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B314" s="19"/>
-      <c r="D314" s="42"/>
+      <c r="D314" s="44"/>
       <c r="E314" s="20">
         <v>3</v>
       </c>
@@ -8202,7 +8244,7 @@
     </row>
     <row r="315" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B315" s="19"/>
-      <c r="D315" s="42"/>
+      <c r="D315" s="44"/>
       <c r="E315" s="20">
         <v>4</v>
       </c>
@@ -8217,7 +8259,7 @@
     </row>
     <row r="316" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B316" s="19"/>
-      <c r="D316" s="42"/>
+      <c r="D316" s="44"/>
       <c r="E316" s="20">
         <v>5</v>
       </c>
@@ -8232,7 +8274,7 @@
     </row>
     <row r="317" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B317" s="19"/>
-      <c r="D317" s="42"/>
+      <c r="D317" s="44"/>
       <c r="E317" s="20">
         <v>6</v>
       </c>
@@ -8247,7 +8289,7 @@
     </row>
     <row r="318" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B318" s="19"/>
-      <c r="D318" s="42"/>
+      <c r="D318" s="44"/>
       <c r="E318" s="20">
         <v>7</v>
       </c>
@@ -8262,7 +8304,7 @@
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B319" s="19"/>
-      <c r="D319" s="42"/>
+      <c r="D319" s="44"/>
       <c r="E319" s="20">
         <v>8</v>
       </c>
@@ -8290,7 +8332,7 @@
       <c r="C321" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D321" s="42" t="s">
+      <c r="D321" s="44" t="s">
         <v>299</v>
       </c>
       <c r="E321" s="20">
@@ -8307,7 +8349,7 @@
     </row>
     <row r="322" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B322" s="19"/>
-      <c r="D322" s="42"/>
+      <c r="D322" s="44"/>
       <c r="E322" s="20">
         <v>2</v>
       </c>
@@ -8322,7 +8364,7 @@
     </row>
     <row r="323" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B323" s="19"/>
-      <c r="D323" s="42"/>
+      <c r="D323" s="44"/>
       <c r="E323" s="20">
         <v>3</v>
       </c>
@@ -8337,7 +8379,7 @@
     </row>
     <row r="324" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B324" s="19"/>
-      <c r="D324" s="42"/>
+      <c r="D324" s="44"/>
       <c r="E324" s="20">
         <v>4</v>
       </c>
@@ -8352,7 +8394,7 @@
     </row>
     <row r="325" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B325" s="19"/>
-      <c r="D325" s="42"/>
+      <c r="D325" s="44"/>
       <c r="E325" s="20">
         <v>5</v>
       </c>
@@ -8367,7 +8409,7 @@
     </row>
     <row r="326" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B326" s="19"/>
-      <c r="D326" s="42"/>
+      <c r="D326" s="44"/>
       <c r="E326" s="20">
         <v>6</v>
       </c>
@@ -8382,7 +8424,7 @@
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B327" s="19"/>
-      <c r="D327" s="42"/>
+      <c r="D327" s="44"/>
       <c r="E327" s="20">
         <v>7</v>
       </c>
@@ -8410,7 +8452,7 @@
       <c r="C329" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D329" s="42" t="s">
+      <c r="D329" s="44" t="s">
         <v>300</v>
       </c>
       <c r="E329" s="20">
@@ -8427,7 +8469,7 @@
     </row>
     <row r="330" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B330" s="19"/>
-      <c r="D330" s="42"/>
+      <c r="D330" s="44"/>
       <c r="E330" s="20">
         <v>2</v>
       </c>
@@ -8442,7 +8484,7 @@
     </row>
     <row r="331" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B331" s="19"/>
-      <c r="D331" s="42"/>
+      <c r="D331" s="44"/>
       <c r="E331" s="20">
         <v>3</v>
       </c>
@@ -8457,7 +8499,7 @@
     </row>
     <row r="332" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B332" s="19"/>
-      <c r="D332" s="42"/>
+      <c r="D332" s="44"/>
       <c r="E332" s="20">
         <v>4</v>
       </c>
@@ -8472,7 +8514,7 @@
     </row>
     <row r="333" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B333" s="19"/>
-      <c r="D333" s="42"/>
+      <c r="D333" s="44"/>
       <c r="E333" s="20">
         <v>5</v>
       </c>
@@ -8500,7 +8542,7 @@
       <c r="C335" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D335" s="42" t="s">
+      <c r="D335" s="44" t="s">
         <v>311</v>
       </c>
       <c r="E335" s="20">
@@ -8517,7 +8559,7 @@
     </row>
     <row r="336" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B336" s="19"/>
-      <c r="D336" s="42"/>
+      <c r="D336" s="44"/>
       <c r="E336" s="20">
         <v>2</v>
       </c>
@@ -8532,7 +8574,7 @@
     </row>
     <row r="337" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B337" s="19"/>
-      <c r="D337" s="42"/>
+      <c r="D337" s="44"/>
       <c r="E337" s="20">
         <v>3</v>
       </c>
@@ -8547,7 +8589,7 @@
     </row>
     <row r="338" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B338" s="19"/>
-      <c r="D338" s="42"/>
+      <c r="D338" s="44"/>
       <c r="E338" s="20">
         <v>4</v>
       </c>
@@ -8562,7 +8604,7 @@
     </row>
     <row r="339" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B339" s="19"/>
-      <c r="D339" s="42"/>
+      <c r="D339" s="44"/>
       <c r="E339" s="20">
         <v>5</v>
       </c>
@@ -8577,7 +8619,7 @@
     </row>
     <row r="340" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B340" s="19"/>
-      <c r="D340" s="42"/>
+      <c r="D340" s="44"/>
       <c r="E340" s="20">
         <v>6</v>
       </c>
@@ -8605,7 +8647,7 @@
       <c r="C342" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D342" s="42" t="s">
+      <c r="D342" s="44" t="s">
         <v>316</v>
       </c>
       <c r="E342" s="20">
@@ -8622,7 +8664,7 @@
     </row>
     <row r="343" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B343" s="19"/>
-      <c r="D343" s="42"/>
+      <c r="D343" s="44"/>
       <c r="E343" s="20">
         <v>2</v>
       </c>
@@ -8637,7 +8679,7 @@
     </row>
     <row r="344" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B344" s="19"/>
-      <c r="D344" s="42"/>
+      <c r="D344" s="44"/>
       <c r="E344" s="20">
         <v>3</v>
       </c>
@@ -8652,7 +8694,7 @@
     </row>
     <row r="345" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B345" s="19"/>
-      <c r="D345" s="42"/>
+      <c r="D345" s="44"/>
       <c r="E345" s="20">
         <v>4</v>
       </c>
@@ -8667,7 +8709,7 @@
     </row>
     <row r="346" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B346" s="19"/>
-      <c r="D346" s="42"/>
+      <c r="D346" s="44"/>
       <c r="E346" s="20">
         <v>5</v>
       </c>
@@ -8682,7 +8724,7 @@
     </row>
     <row r="347" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B347" s="19"/>
-      <c r="D347" s="42"/>
+      <c r="D347" s="44"/>
       <c r="E347" s="20">
         <v>6</v>
       </c>
@@ -8697,7 +8739,7 @@
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B348" s="19"/>
-      <c r="D348" s="42"/>
+      <c r="D348" s="44"/>
       <c r="E348" s="20">
         <v>7</v>
       </c>
@@ -8725,7 +8767,7 @@
       <c r="C350" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D350" s="42" t="s">
+      <c r="D350" s="44" t="s">
         <v>315</v>
       </c>
       <c r="E350" s="20">
@@ -8742,7 +8784,7 @@
     </row>
     <row r="351" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B351" s="19"/>
-      <c r="D351" s="42"/>
+      <c r="D351" s="44"/>
       <c r="E351" s="20">
         <v>2</v>
       </c>
@@ -8757,7 +8799,7 @@
     </row>
     <row r="352" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B352" s="19"/>
-      <c r="D352" s="42"/>
+      <c r="D352" s="44"/>
       <c r="E352" s="20">
         <v>3</v>
       </c>
@@ -8772,7 +8814,7 @@
     </row>
     <row r="353" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B353" s="19"/>
-      <c r="D353" s="42"/>
+      <c r="D353" s="44"/>
       <c r="E353" s="20">
         <v>4</v>
       </c>
@@ -8787,7 +8829,7 @@
     </row>
     <row r="354" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B354" s="19"/>
-      <c r="D354" s="42"/>
+      <c r="D354" s="44"/>
       <c r="E354" s="20">
         <v>5</v>
       </c>
@@ -8802,7 +8844,7 @@
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B355" s="19"/>
-      <c r="D355" s="42"/>
+      <c r="D355" s="44"/>
       <c r="E355" s="20">
         <v>6</v>
       </c>
@@ -8830,7 +8872,7 @@
       <c r="C357" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D357" s="42" t="s">
+      <c r="D357" s="44" t="s">
         <v>319</v>
       </c>
       <c r="E357" s="20">
@@ -8847,7 +8889,7 @@
     </row>
     <row r="358" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B358" s="19"/>
-      <c r="D358" s="42"/>
+      <c r="D358" s="44"/>
       <c r="E358" s="20">
         <v>2</v>
       </c>
@@ -8862,7 +8904,7 @@
     </row>
     <row r="359" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="B359" s="19"/>
-      <c r="D359" s="42"/>
+      <c r="D359" s="44"/>
       <c r="E359" s="20">
         <v>3</v>
       </c>
@@ -8880,7 +8922,7 @@
     </row>
     <row r="360" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B360" s="19"/>
-      <c r="D360" s="42"/>
+      <c r="D360" s="44"/>
       <c r="E360" s="20">
         <v>4</v>
       </c>
@@ -8908,7 +8950,7 @@
       <c r="C362" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D362" s="42" t="s">
+      <c r="D362" s="44" t="s">
         <v>326</v>
       </c>
       <c r="E362" s="20">
@@ -8925,7 +8967,7 @@
     </row>
     <row r="363" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B363" s="19"/>
-      <c r="D363" s="42"/>
+      <c r="D363" s="44"/>
       <c r="E363" s="20">
         <v>2</v>
       </c>
@@ -8940,7 +8982,7 @@
     </row>
     <row r="364" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="B364" s="19"/>
-      <c r="D364" s="42"/>
+      <c r="D364" s="44"/>
       <c r="E364" s="20">
         <v>3</v>
       </c>
@@ -8958,7 +9000,7 @@
     </row>
     <row r="365" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B365" s="19"/>
-      <c r="D365" s="42"/>
+      <c r="D365" s="44"/>
       <c r="E365" s="20">
         <v>4</v>
       </c>
@@ -8973,7 +9015,7 @@
     </row>
     <row r="366" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B366" s="19"/>
-      <c r="D366" s="42"/>
+      <c r="D366" s="44"/>
       <c r="E366" s="20">
         <v>5</v>
       </c>
@@ -9001,7 +9043,7 @@
       <c r="C368" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D368" s="42" t="s">
+      <c r="D368" s="44" t="s">
         <v>329</v>
       </c>
       <c r="E368" s="20">
@@ -9018,7 +9060,7 @@
     </row>
     <row r="369" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B369" s="19"/>
-      <c r="D369" s="42"/>
+      <c r="D369" s="44"/>
       <c r="E369" s="20">
         <v>2</v>
       </c>
@@ -9033,7 +9075,7 @@
     </row>
     <row r="370" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="B370" s="19"/>
-      <c r="D370" s="42"/>
+      <c r="D370" s="44"/>
       <c r="E370" s="20">
         <v>3</v>
       </c>
@@ -9051,7 +9093,7 @@
     </row>
     <row r="371" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B371" s="19"/>
-      <c r="D371" s="42"/>
+      <c r="D371" s="44"/>
       <c r="E371" s="20">
         <v>4</v>
       </c>
@@ -9066,7 +9108,7 @@
     </row>
     <row r="372" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B372" s="19"/>
-      <c r="D372" s="42"/>
+      <c r="D372" s="44"/>
       <c r="E372" s="20">
         <v>5</v>
       </c>
@@ -9081,7 +9123,7 @@
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B373" s="19"/>
-      <c r="D373" s="42"/>
+      <c r="D373" s="44"/>
       <c r="E373" s="20">
         <v>6</v>
       </c>
@@ -9109,7 +9151,7 @@
       <c r="C375" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D375" s="42" t="s">
+      <c r="D375" s="44" t="s">
         <v>332</v>
       </c>
       <c r="E375" s="20">
@@ -9126,7 +9168,7 @@
     </row>
     <row r="376" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B376" s="19"/>
-      <c r="D376" s="42"/>
+      <c r="D376" s="44"/>
       <c r="E376" s="20">
         <v>2</v>
       </c>
@@ -9141,7 +9183,7 @@
     </row>
     <row r="377" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="B377" s="19"/>
-      <c r="D377" s="42"/>
+      <c r="D377" s="44"/>
       <c r="E377" s="20">
         <v>3</v>
       </c>
@@ -9159,7 +9201,7 @@
     </row>
     <row r="378" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B378" s="19"/>
-      <c r="D378" s="42"/>
+      <c r="D378" s="44"/>
       <c r="E378" s="20">
         <v>4</v>
       </c>
@@ -9174,7 +9216,7 @@
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B379" s="19"/>
-      <c r="D379" s="42"/>
+      <c r="D379" s="44"/>
       <c r="E379" s="20">
         <v>5</v>
       </c>
@@ -9202,7 +9244,7 @@
       <c r="C381" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D381" s="42" t="s">
+      <c r="D381" s="44" t="s">
         <v>342</v>
       </c>
       <c r="E381" s="20">
@@ -9219,7 +9261,7 @@
     </row>
     <row r="382" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B382" s="27"/>
-      <c r="D382" s="42"/>
+      <c r="D382" s="44"/>
       <c r="E382" s="20">
         <v>2</v>
       </c>
@@ -9234,7 +9276,7 @@
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B383" s="27"/>
-      <c r="D383" s="42"/>
+      <c r="D383" s="44"/>
       <c r="E383" s="20">
         <v>3</v>
       </c>
@@ -9252,7 +9294,7 @@
     </row>
     <row r="384" spans="1:11" ht="180" x14ac:dyDescent="0.25">
       <c r="B384" s="27"/>
-      <c r="D384" s="42"/>
+      <c r="D384" s="44"/>
       <c r="E384" s="20">
         <v>4</v>
       </c>
@@ -9267,7 +9309,7 @@
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B385" s="27"/>
-      <c r="D385" s="42"/>
+      <c r="D385" s="44"/>
       <c r="E385" s="20">
         <v>5</v>
       </c>
@@ -9295,7 +9337,7 @@
       <c r="C387" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D387" s="42" t="s">
+      <c r="D387" s="44" t="s">
         <v>342</v>
       </c>
       <c r="E387" s="20">
@@ -9312,7 +9354,7 @@
     </row>
     <row r="388" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B388" s="27"/>
-      <c r="D388" s="42"/>
+      <c r="D388" s="44"/>
       <c r="E388" s="20">
         <v>2</v>
       </c>
@@ -9327,7 +9369,7 @@
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B389" s="27"/>
-      <c r="D389" s="42"/>
+      <c r="D389" s="44"/>
       <c r="E389" s="20">
         <v>3</v>
       </c>
@@ -9345,7 +9387,7 @@
     </row>
     <row r="390" spans="1:11" ht="180" x14ac:dyDescent="0.25">
       <c r="B390" s="27"/>
-      <c r="D390" s="42"/>
+      <c r="D390" s="44"/>
       <c r="E390" s="20">
         <v>4</v>
       </c>
@@ -9360,7 +9402,7 @@
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B391" s="27"/>
-      <c r="D391" s="42"/>
+      <c r="D391" s="44"/>
       <c r="E391" s="20">
         <v>5</v>
       </c>
@@ -9388,7 +9430,7 @@
       <c r="C393" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D393" s="42" t="s">
+      <c r="D393" s="44" t="s">
         <v>350</v>
       </c>
       <c r="E393" s="20">
@@ -9405,7 +9447,7 @@
     </row>
     <row r="394" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B394" s="27"/>
-      <c r="D394" s="42"/>
+      <c r="D394" s="44"/>
       <c r="E394" s="20">
         <v>2</v>
       </c>
@@ -9420,7 +9462,7 @@
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B395" s="27"/>
-      <c r="D395" s="42"/>
+      <c r="D395" s="44"/>
       <c r="E395" s="20">
         <v>3</v>
       </c>
@@ -9438,7 +9480,7 @@
     </row>
     <row r="396" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B396" s="27"/>
-      <c r="D396" s="42"/>
+      <c r="D396" s="44"/>
       <c r="E396" s="20">
         <v>4</v>
       </c>
@@ -9453,7 +9495,7 @@
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B397" s="27"/>
-      <c r="D397" s="42"/>
+      <c r="D397" s="44"/>
       <c r="E397" s="20">
         <v>5</v>
       </c>
@@ -9468,7 +9510,7 @@
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B398" s="19"/>
-      <c r="D398" s="42"/>
+      <c r="D398" s="44"/>
       <c r="E398" s="20">
         <v>6</v>
       </c>
@@ -9496,7 +9538,7 @@
       <c r="C400" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D400" s="42" t="s">
+      <c r="D400" s="44" t="s">
         <v>352</v>
       </c>
       <c r="E400" s="20">
@@ -9513,7 +9555,7 @@
     </row>
     <row r="401" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B401" s="27"/>
-      <c r="D401" s="42"/>
+      <c r="D401" s="44"/>
       <c r="E401" s="20">
         <v>2</v>
       </c>
@@ -9528,7 +9570,7 @@
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B402" s="27"/>
-      <c r="D402" s="42"/>
+      <c r="D402" s="44"/>
       <c r="E402" s="20">
         <v>3</v>
       </c>
@@ -9546,7 +9588,7 @@
     </row>
     <row r="403" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B403" s="27"/>
-      <c r="D403" s="42"/>
+      <c r="D403" s="44"/>
       <c r="E403" s="20">
         <v>4</v>
       </c>
@@ -9561,7 +9603,7 @@
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B404" s="27"/>
-      <c r="D404" s="42"/>
+      <c r="D404" s="44"/>
       <c r="E404" s="20">
         <v>5</v>
       </c>
@@ -9576,7 +9618,7 @@
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B405" s="27"/>
-      <c r="D405" s="42"/>
+      <c r="D405" s="44"/>
       <c r="E405" s="20">
         <v>6</v>
       </c>
@@ -9604,7 +9646,7 @@
       <c r="C407" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D407" s="42" t="s">
+      <c r="D407" s="44" t="s">
         <v>353</v>
       </c>
       <c r="E407" s="20">
@@ -9621,7 +9663,7 @@
     </row>
     <row r="408" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B408" s="27"/>
-      <c r="D408" s="42"/>
+      <c r="D408" s="44"/>
       <c r="E408" s="20">
         <v>2</v>
       </c>
@@ -9636,7 +9678,7 @@
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B409" s="27"/>
-      <c r="D409" s="42"/>
+      <c r="D409" s="44"/>
       <c r="E409" s="20">
         <v>3</v>
       </c>
@@ -9654,7 +9696,7 @@
     </row>
     <row r="410" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B410" s="27"/>
-      <c r="D410" s="42"/>
+      <c r="D410" s="44"/>
       <c r="E410" s="20">
         <v>4</v>
       </c>
@@ -9669,7 +9711,7 @@
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B411" s="27"/>
-      <c r="D411" s="42"/>
+      <c r="D411" s="44"/>
       <c r="E411" s="20">
         <v>5</v>
       </c>
@@ -9684,7 +9726,7 @@
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B412" s="27"/>
-      <c r="D412" s="42"/>
+      <c r="D412" s="44"/>
       <c r="E412" s="20">
         <v>6</v>
       </c>
@@ -9712,7 +9754,7 @@
       <c r="C414" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D414" s="42" t="s">
+      <c r="D414" s="44" t="s">
         <v>365</v>
       </c>
       <c r="E414" s="20">
@@ -9729,7 +9771,7 @@
     </row>
     <row r="415" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B415" s="31"/>
-      <c r="D415" s="42"/>
+      <c r="D415" s="44"/>
       <c r="E415" s="20">
         <v>2</v>
       </c>
@@ -9744,7 +9786,7 @@
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B416" s="31"/>
-      <c r="D416" s="42"/>
+      <c r="D416" s="44"/>
       <c r="E416" s="20">
         <v>3</v>
       </c>
@@ -9759,7 +9801,7 @@
     </row>
     <row r="417" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B417" s="31"/>
-      <c r="D417" s="42"/>
+      <c r="D417" s="44"/>
       <c r="E417" s="20">
         <v>4</v>
       </c>
@@ -9787,7 +9829,7 @@
       <c r="C419" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D419" s="42" t="s">
+      <c r="D419" s="44" t="s">
         <v>387</v>
       </c>
       <c r="E419" s="20">
@@ -9804,7 +9846,7 @@
     </row>
     <row r="420" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B420" s="31"/>
-      <c r="D420" s="42"/>
+      <c r="D420" s="44"/>
       <c r="E420" s="20">
         <v>2</v>
       </c>
@@ -9832,7 +9874,7 @@
       <c r="C422" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D422" s="42" t="s">
+      <c r="D422" s="44" t="s">
         <v>391</v>
       </c>
       <c r="E422" s="20">
@@ -9849,7 +9891,7 @@
     </row>
     <row r="423" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B423" s="31"/>
-      <c r="D423" s="42"/>
+      <c r="D423" s="44"/>
       <c r="E423" s="20">
         <v>2</v>
       </c>
@@ -9882,7 +9924,7 @@
       <c r="C426" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D426" s="42" t="s">
+      <c r="D426" s="44" t="s">
         <v>367</v>
       </c>
       <c r="E426" s="20">
@@ -9899,7 +9941,7 @@
     </row>
     <row r="427" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B427" s="31"/>
-      <c r="D427" s="42"/>
+      <c r="D427" s="44"/>
       <c r="E427" s="20">
         <v>2</v>
       </c>
@@ -9914,7 +9956,7 @@
     </row>
     <row r="428" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B428" s="31"/>
-      <c r="D428" s="42"/>
+      <c r="D428" s="44"/>
       <c r="E428" s="20">
         <v>3</v>
       </c>
@@ -9932,7 +9974,7 @@
     </row>
     <row r="429" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B429" s="19"/>
-      <c r="D429" s="42"/>
+      <c r="D429" s="44"/>
       <c r="E429" s="20">
         <v>4</v>
       </c>
@@ -9960,7 +10002,7 @@
       <c r="C431" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D431" s="42" t="s">
+      <c r="D431" s="44" t="s">
         <v>373</v>
       </c>
       <c r="E431" s="20">
@@ -9977,7 +10019,7 @@
     </row>
     <row r="432" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B432" s="31"/>
-      <c r="D432" s="42"/>
+      <c r="D432" s="44"/>
       <c r="E432" s="20">
         <v>2</v>
       </c>
@@ -9992,7 +10034,7 @@
     </row>
     <row r="433" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B433" s="31"/>
-      <c r="D433" s="42"/>
+      <c r="D433" s="44"/>
       <c r="E433" s="20">
         <v>3</v>
       </c>
@@ -10023,7 +10065,7 @@
       <c r="C435" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D435" s="42" t="s">
+      <c r="D435" s="44" t="s">
         <v>367</v>
       </c>
       <c r="E435" s="20">
@@ -10043,7 +10085,7 @@
         <v>385</v>
       </c>
       <c r="B436" s="31"/>
-      <c r="D436" s="42"/>
+      <c r="D436" s="44"/>
       <c r="E436" s="20">
         <v>2</v>
       </c>
@@ -10058,7 +10100,7 @@
     </row>
     <row r="437" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B437" s="19"/>
-      <c r="D437" s="42"/>
+      <c r="D437" s="44"/>
       <c r="E437" s="20">
         <v>3</v>
       </c>
@@ -10076,7 +10118,7 @@
     </row>
     <row r="438" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B438" s="19"/>
-      <c r="D438" s="42"/>
+      <c r="D438" s="44"/>
       <c r="E438" s="20">
         <v>4</v>
       </c>
@@ -10096,7 +10138,7 @@
     </row>
     <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B440" s="19"/>
-      <c r="D440" s="42" t="s">
+      <c r="D440" s="44" t="s">
         <v>382</v>
       </c>
       <c r="E440" s="20">
@@ -10121,7 +10163,7 @@
       <c r="C441" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D441" s="42"/>
+      <c r="D441" s="44"/>
       <c r="E441" s="20">
         <v>2</v>
       </c>
@@ -10136,7 +10178,7 @@
     </row>
     <row r="442" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B442" s="19"/>
-      <c r="D442" s="42"/>
+      <c r="D442" s="44"/>
       <c r="E442" s="20">
         <v>3</v>
       </c>
@@ -10154,7 +10196,7 @@
     </row>
     <row r="443" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B443" s="19"/>
-      <c r="D443" s="42"/>
+      <c r="D443" s="44"/>
       <c r="E443" s="20">
         <v>4</v>
       </c>
@@ -10182,7 +10224,7 @@
       <c r="C445" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D445" s="42" t="s">
+      <c r="D445" s="44" t="s">
         <v>383</v>
       </c>
       <c r="E445" s="20">
@@ -10199,7 +10241,7 @@
     </row>
     <row r="446" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B446" s="19"/>
-      <c r="D446" s="42"/>
+      <c r="D446" s="44"/>
       <c r="E446" s="20">
         <v>2</v>
       </c>
@@ -10214,7 +10256,7 @@
     </row>
     <row r="447" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B447" s="19"/>
-      <c r="D447" s="42"/>
+      <c r="D447" s="44"/>
       <c r="E447" s="20">
         <v>3</v>
       </c>
@@ -10232,7 +10274,7 @@
     </row>
     <row r="448" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B448" s="19"/>
-      <c r="D448" s="42"/>
+      <c r="D448" s="44"/>
       <c r="E448" s="20">
         <v>4</v>
       </c>
@@ -10260,14 +10302,14 @@
       <c r="C450" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D450" s="42" t="s">
-        <v>401</v>
+      <c r="D450" s="45" t="s">
+        <v>574</v>
       </c>
       <c r="E450" s="20">
         <v>1</v>
       </c>
       <c r="F450" s="20" t="s">
-        <v>31</v>
+        <v>544</v>
       </c>
       <c r="H450" s="20" t="s">
         <v>32</v>
@@ -10277,915 +10319,912 @@
     </row>
     <row r="451" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B451" s="33"/>
-      <c r="D451" s="42"/>
+      <c r="D451" s="45"/>
       <c r="E451" s="20">
         <v>2</v>
       </c>
       <c r="F451" s="20" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G451" s="20" t="s">
-        <v>403</v>
+        <v>569</v>
       </c>
       <c r="J451" s="28"/>
       <c r="K451" s="2"/>
     </row>
     <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B452" s="33"/>
-      <c r="D452" s="42"/>
+      <c r="D452" s="45"/>
       <c r="E452" s="20">
         <v>3</v>
       </c>
       <c r="F452" s="20" t="s">
-        <v>405</v>
+        <v>570</v>
       </c>
       <c r="G452" s="20" t="s">
-        <v>404</v>
+        <v>571</v>
       </c>
       <c r="J452" s="28"/>
       <c r="K452" s="2"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B453" s="33"/>
-      <c r="D453" s="42"/>
+      <c r="D453" s="45"/>
       <c r="E453" s="20">
         <v>4</v>
       </c>
       <c r="F453" s="20" t="s">
-        <v>406</v>
+        <v>572</v>
       </c>
       <c r="G453" s="20" t="s">
-        <v>407</v>
+        <v>578</v>
       </c>
       <c r="J453" s="28"/>
       <c r="K453" s="2"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B454" s="19"/>
+    <row r="454" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B454" s="42"/>
+      <c r="D454" s="45"/>
+      <c r="E454" s="20">
+        <v>5</v>
+      </c>
+      <c r="F454" s="20" t="s">
+        <v>573</v>
+      </c>
+      <c r="G454" s="20" t="s">
+        <v>577</v>
+      </c>
       <c r="J454" s="28"/>
       <c r="K454" s="2"/>
     </row>
-    <row r="455" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A455" s="38" t="s">
-        <v>408</v>
-      </c>
-      <c r="B455" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="C455" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D455" s="42" t="s">
-        <v>409</v>
-      </c>
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B455" s="42"/>
+      <c r="D455" s="45"/>
       <c r="E455" s="20">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F455" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="H455" s="20" t="s">
-        <v>32</v>
+        <v>201</v>
+      </c>
+      <c r="G455" s="20" t="s">
+        <v>549</v>
       </c>
       <c r="J455" s="28"/>
       <c r="K455" s="2"/>
     </row>
-    <row r="456" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B456" s="33"/>
-      <c r="D456" s="42"/>
-      <c r="E456" s="20">
-        <v>2</v>
-      </c>
-      <c r="F456" s="20" t="s">
-        <v>402</v>
-      </c>
-      <c r="G456" s="20" t="s">
-        <v>403</v>
-      </c>
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B456" s="19"/>
       <c r="J456" s="28"/>
       <c r="K456" s="2"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B457" s="33"/>
-      <c r="D457" s="42"/>
+    <row r="457" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A457" s="38" t="s">
+        <v>407</v>
+      </c>
+      <c r="B457" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C457" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D457" s="44" t="s">
+        <v>408</v>
+      </c>
       <c r="E457" s="20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F457" s="20" t="s">
-        <v>405</v>
-      </c>
-      <c r="G457" s="20" t="s">
-        <v>404</v>
+        <v>31</v>
+      </c>
+      <c r="H457" s="20" t="s">
+        <v>32</v>
       </c>
       <c r="J457" s="28"/>
       <c r="K457" s="2"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B458" s="33"/>
-      <c r="D458" s="42"/>
+      <c r="D458" s="44"/>
       <c r="E458" s="20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F458" s="20" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="G458" s="20" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="J458" s="28"/>
       <c r="K458" s="2"/>
     </row>
-    <row r="459" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B459" s="19"/>
-      <c r="D459" s="42"/>
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B459" s="33"/>
+      <c r="D459" s="44"/>
       <c r="E459" s="20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F459" s="20" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="G459" s="20" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="J459" s="28"/>
       <c r="K459" s="2"/>
     </row>
     <row r="460" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B460" s="19"/>
+      <c r="B460" s="33"/>
+      <c r="D460" s="44"/>
+      <c r="E460" s="20">
+        <v>4</v>
+      </c>
+      <c r="F460" s="20" t="s">
+        <v>405</v>
+      </c>
+      <c r="G460" s="20" t="s">
+        <v>406</v>
+      </c>
       <c r="J460" s="28"/>
       <c r="K460" s="2"/>
     </row>
-    <row r="461" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A461" s="38" t="s">
-        <v>412</v>
-      </c>
-      <c r="B461" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="C461" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D461" s="42" t="s">
-        <v>413</v>
-      </c>
+    <row r="461" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B461" s="19"/>
+      <c r="D461" s="44"/>
       <c r="E461" s="20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F461" s="20" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G461" s="20" t="s">
-        <v>415</v>
-      </c>
-      <c r="H461" s="20" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="J461" s="28"/>
       <c r="K461" s="2"/>
     </row>
-    <row r="462" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B462" s="34"/>
-      <c r="D462" s="42"/>
-      <c r="E462" s="20">
-        <v>2</v>
-      </c>
-      <c r="F462" s="20" t="s">
-        <v>447</v>
-      </c>
-      <c r="G462" s="20" t="s">
-        <v>417</v>
-      </c>
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B462" s="19"/>
       <c r="J462" s="28"/>
       <c r="K462" s="2"/>
     </row>
-    <row r="463" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B463" s="34"/>
-      <c r="D463" s="42"/>
+    <row r="463" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A463" s="38" t="s">
+        <v>411</v>
+      </c>
+      <c r="B463" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C463" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D463" s="44" t="s">
+        <v>412</v>
+      </c>
       <c r="E463" s="20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F463" s="20" t="s">
-        <v>374</v>
+        <v>413</v>
       </c>
       <c r="G463" s="20" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H463" s="20" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="J463" s="28"/>
       <c r="K463" s="2"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B464" s="19"/>
+    <row r="464" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B464" s="34"/>
+      <c r="D464" s="44"/>
+      <c r="E464" s="20">
+        <v>2</v>
+      </c>
+      <c r="F464" s="20" t="s">
+        <v>446</v>
+      </c>
+      <c r="G464" s="20" t="s">
+        <v>416</v>
+      </c>
       <c r="J464" s="28"/>
       <c r="K464" s="2"/>
     </row>
-    <row r="465" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A465" s="38" t="s">
-        <v>420</v>
-      </c>
-      <c r="B465" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="C465" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D465" s="42" t="s">
-        <v>421</v>
-      </c>
+    <row r="465" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B465" s="34"/>
+      <c r="D465" s="44"/>
       <c r="E465" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F465" s="20" t="s">
-        <v>414</v>
+        <v>374</v>
       </c>
       <c r="G465" s="20" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="H465" s="20" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="J465" s="28"/>
       <c r="K465" s="2"/>
     </row>
-    <row r="466" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B466" s="34"/>
-      <c r="D466" s="42"/>
-      <c r="E466" s="20">
-        <v>2</v>
-      </c>
-      <c r="F466" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G466" s="20" t="s">
-        <v>422</v>
-      </c>
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B466" s="19"/>
       <c r="J466" s="28"/>
       <c r="K466" s="2"/>
     </row>
-    <row r="467" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B467" s="34"/>
-      <c r="D467" s="42"/>
+    <row r="467" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A467" s="38" t="s">
+        <v>419</v>
+      </c>
+      <c r="B467" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C467" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D467" s="44" t="s">
+        <v>420</v>
+      </c>
       <c r="E467" s="20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F467" s="20" t="s">
-        <v>374</v>
+        <v>413</v>
       </c>
       <c r="G467" s="20" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H467" s="20" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="J467" s="28"/>
       <c r="K467" s="2"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B468" s="19"/>
-      <c r="D468" s="42"/>
+    <row r="468" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B468" s="34"/>
+      <c r="D468" s="44"/>
       <c r="E468" s="20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F468" s="20" t="s">
-        <v>423</v>
+        <v>445</v>
       </c>
       <c r="G468" s="20" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="J468" s="28"/>
       <c r="K468" s="2"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B469" s="19"/>
+    <row r="469" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B469" s="34"/>
+      <c r="D469" s="44"/>
+      <c r="E469" s="20">
+        <v>3</v>
+      </c>
+      <c r="F469" s="20" t="s">
+        <v>374</v>
+      </c>
+      <c r="G469" s="20" t="s">
+        <v>417</v>
+      </c>
+      <c r="H469" s="20" t="s">
+        <v>418</v>
+      </c>
       <c r="J469" s="28"/>
       <c r="K469" s="2"/>
     </row>
-    <row r="470" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A470" s="38" t="s">
-        <v>425</v>
-      </c>
-      <c r="B470" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="C470" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D470" s="42" t="s">
-        <v>431</v>
-      </c>
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B470" s="19"/>
+      <c r="D470" s="44"/>
       <c r="E470" s="20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F470" s="20" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="G470" s="20" t="s">
-        <v>415</v>
-      </c>
-      <c r="H470" s="20" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="J470" s="28"/>
       <c r="K470" s="2"/>
     </row>
-    <row r="471" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B471" s="34"/>
-      <c r="D471" s="42"/>
-      <c r="E471" s="20">
-        <v>2</v>
-      </c>
-      <c r="F471" s="20" t="s">
-        <v>445</v>
-      </c>
-      <c r="G471" s="20" t="s">
-        <v>426</v>
-      </c>
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B471" s="19"/>
       <c r="J471" s="28"/>
       <c r="K471" s="2"/>
     </row>
-    <row r="472" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B472" s="34"/>
-      <c r="D472" s="42"/>
+    <row r="472" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A472" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="B472" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C472" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D472" s="44" t="s">
+        <v>430</v>
+      </c>
       <c r="E472" s="20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F472" s="20" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="G472" s="20" t="s">
-        <v>428</v>
+        <v>414</v>
+      </c>
+      <c r="H472" s="20" t="s">
+        <v>415</v>
       </c>
       <c r="J472" s="28"/>
       <c r="K472" s="2"/>
     </row>
     <row r="473" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B473" s="34"/>
-      <c r="D473" s="42"/>
+      <c r="D473" s="44"/>
       <c r="E473" s="20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F473" s="20" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
       <c r="G473" s="20" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="J473" s="28"/>
       <c r="K473" s="2"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B474" s="19"/>
+    <row r="474" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B474" s="34"/>
+      <c r="D474" s="44"/>
+      <c r="E474" s="20">
+        <v>3</v>
+      </c>
+      <c r="F474" s="20" t="s">
+        <v>426</v>
+      </c>
+      <c r="G474" s="20" t="s">
+        <v>427</v>
+      </c>
       <c r="J474" s="28"/>
       <c r="K474" s="2"/>
     </row>
-    <row r="475" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A475" s="38" t="s">
-        <v>433</v>
-      </c>
-      <c r="B475" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="C475" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D475" s="42" t="s">
-        <v>432</v>
-      </c>
+    <row r="475" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B475" s="34"/>
+      <c r="D475" s="44"/>
       <c r="E475" s="20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F475" s="20" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="G475" s="20" t="s">
-        <v>415</v>
-      </c>
-      <c r="H475" s="20" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="J475" s="28"/>
       <c r="K475" s="2"/>
     </row>
-    <row r="476" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B476" s="34"/>
-      <c r="D476" s="42"/>
-      <c r="E476" s="20">
-        <v>2</v>
-      </c>
-      <c r="F476" s="20" t="s">
-        <v>445</v>
-      </c>
-      <c r="G476" s="20" t="s">
-        <v>426</v>
-      </c>
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B476" s="19"/>
       <c r="J476" s="28"/>
       <c r="K476" s="2"/>
     </row>
-    <row r="477" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B477" s="34"/>
-      <c r="D477" s="42"/>
+    <row r="477" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A477" s="38" t="s">
+        <v>432</v>
+      </c>
+      <c r="B477" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C477" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D477" s="44" t="s">
+        <v>431</v>
+      </c>
       <c r="E477" s="20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F477" s="20" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="G477" s="20" t="s">
-        <v>428</v>
+        <v>414</v>
+      </c>
+      <c r="H477" s="20" t="s">
+        <v>415</v>
       </c>
       <c r="J477" s="28"/>
       <c r="K477" s="2"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B478" s="34"/>
-      <c r="D478" s="42"/>
+      <c r="D478" s="44"/>
       <c r="E478" s="20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F478" s="20" t="s">
-        <v>423</v>
+        <v>444</v>
       </c>
       <c r="G478" s="20" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="J478" s="28"/>
       <c r="K478" s="2"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B479" s="19"/>
+    <row r="479" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B479" s="34"/>
+      <c r="D479" s="44"/>
+      <c r="E479" s="20">
+        <v>3</v>
+      </c>
+      <c r="F479" s="20" t="s">
+        <v>426</v>
+      </c>
+      <c r="G479" s="20" t="s">
+        <v>427</v>
+      </c>
       <c r="J479" s="28"/>
       <c r="K479" s="2"/>
     </row>
-    <row r="480" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A480" s="38" t="s">
-        <v>434</v>
-      </c>
-      <c r="B480" s="34" t="s">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B480" s="34"/>
+      <c r="D480" s="44"/>
+      <c r="E480" s="20">
+        <v>4</v>
+      </c>
+      <c r="F480" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="G480" s="20" t="s">
+        <v>423</v>
+      </c>
+      <c r="J480" s="28"/>
+      <c r="K480" s="2"/>
+    </row>
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B481" s="19"/>
+      <c r="J481" s="28"/>
+      <c r="K481" s="2"/>
+    </row>
+    <row r="482" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A482" s="38" t="s">
+        <v>433</v>
+      </c>
+      <c r="B482" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C480" s="28" t="s">
+      <c r="C482" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D480" s="42" t="s">
-        <v>436</v>
-      </c>
-      <c r="E480" s="20">
+      <c r="D482" s="44" t="s">
+        <v>435</v>
+      </c>
+      <c r="E482" s="20">
         <v>1</v>
       </c>
-      <c r="F480" s="20" t="s">
+      <c r="F482" s="20" t="s">
+        <v>413</v>
+      </c>
+      <c r="G482" s="20" t="s">
         <v>414</v>
       </c>
-      <c r="G480" s="20" t="s">
+      <c r="H482" s="20" t="s">
         <v>415</v>
-      </c>
-      <c r="H480" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="J480" s="2"/>
-      <c r="K480" s="2"/>
-    </row>
-    <row r="481" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B481" s="34"/>
-      <c r="D481" s="42"/>
-      <c r="E481" s="20">
-        <v>2</v>
-      </c>
-      <c r="F481" s="20" t="s">
-        <v>444</v>
-      </c>
-      <c r="G481" s="20" t="s">
-        <v>455</v>
-      </c>
-      <c r="J481" s="2"/>
-      <c r="K481" s="2"/>
-    </row>
-    <row r="482" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B482" s="34"/>
-      <c r="D482" s="42"/>
-      <c r="E482" s="20">
-        <v>3</v>
-      </c>
-      <c r="F482" s="20" t="s">
-        <v>427</v>
-      </c>
-      <c r="G482" s="20" t="s">
-        <v>437</v>
       </c>
       <c r="J482" s="2"/>
       <c r="K482" s="2"/>
     </row>
     <row r="483" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B483" s="34"/>
-      <c r="D483" s="42"/>
+      <c r="D483" s="44"/>
       <c r="E483" s="20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F483" s="20" t="s">
-        <v>429</v>
+        <v>443</v>
       </c>
       <c r="G483" s="20" t="s">
-        <v>430</v>
+        <v>454</v>
       </c>
       <c r="J483" s="2"/>
       <c r="K483" s="2"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B484" s="34"/>
+      <c r="D484" s="44"/>
+      <c r="E484" s="20">
+        <v>3</v>
+      </c>
+      <c r="F484" s="20" t="s">
+        <v>426</v>
+      </c>
+      <c r="G484" s="20" t="s">
+        <v>436</v>
+      </c>
       <c r="J484" s="2"/>
       <c r="K484" s="2"/>
     </row>
-    <row r="485" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A485" s="38" t="s">
-        <v>435</v>
-      </c>
-      <c r="B485" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="C485" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D485" s="42" t="s">
-        <v>438</v>
-      </c>
+    <row r="485" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B485" s="34"/>
+      <c r="D485" s="44"/>
       <c r="E485" s="20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F485" s="20" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="G485" s="20" t="s">
-        <v>415</v>
-      </c>
-      <c r="H485" s="20" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="J485" s="2"/>
       <c r="K485" s="2"/>
     </row>
-    <row r="486" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B486" s="34"/>
-      <c r="D486" s="42"/>
-      <c r="E486" s="20">
-        <v>2</v>
-      </c>
-      <c r="F486" s="20" t="s">
-        <v>444</v>
-      </c>
-      <c r="G486" s="20" t="s">
-        <v>454</v>
-      </c>
       <c r="J486" s="2"/>
       <c r="K486" s="2"/>
     </row>
-    <row r="487" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B487" s="34"/>
-      <c r="D487" s="42"/>
+    <row r="487" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A487" s="38" t="s">
+        <v>434</v>
+      </c>
+      <c r="B487" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C487" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D487" s="44" t="s">
+        <v>437</v>
+      </c>
       <c r="E487" s="20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F487" s="20" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="G487" s="20" t="s">
-        <v>437</v>
+        <v>414</v>
+      </c>
+      <c r="H487" s="20" t="s">
+        <v>415</v>
       </c>
       <c r="J487" s="2"/>
       <c r="K487" s="2"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B488" s="34"/>
-      <c r="D488" s="42"/>
+      <c r="D488" s="44"/>
       <c r="E488" s="20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F488" s="20" t="s">
-        <v>423</v>
+        <v>443</v>
       </c>
       <c r="G488" s="20" t="s">
-        <v>424</v>
+        <v>453</v>
       </c>
       <c r="J488" s="2"/>
       <c r="K488" s="2"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B489" s="19"/>
+    <row r="489" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B489" s="34"/>
+      <c r="D489" s="44"/>
+      <c r="E489" s="20">
+        <v>3</v>
+      </c>
+      <c r="F489" s="20" t="s">
+        <v>426</v>
+      </c>
+      <c r="G489" s="20" t="s">
+        <v>436</v>
+      </c>
       <c r="J489" s="2"/>
       <c r="K489" s="2"/>
     </row>
-    <row r="490" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A490" s="38" t="s">
-        <v>441</v>
-      </c>
-      <c r="B490" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C490" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D490" s="42" t="s">
-        <v>449</v>
-      </c>
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B490" s="34"/>
+      <c r="D490" s="44"/>
       <c r="E490" s="20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F490" s="20" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="G490" s="20" t="s">
-        <v>415</v>
-      </c>
-      <c r="H490" s="20" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="J490" s="2"/>
       <c r="K490" s="2"/>
     </row>
-    <row r="491" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B491" s="39"/>
-      <c r="D491" s="42"/>
-      <c r="E491" s="20">
-        <v>2</v>
-      </c>
-      <c r="F491" s="20" t="s">
-        <v>443</v>
-      </c>
-      <c r="G491" s="20" t="s">
-        <v>454</v>
-      </c>
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B491" s="19"/>
       <c r="J491" s="2"/>
       <c r="K491" s="2"/>
     </row>
-    <row r="492" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B492" s="39"/>
-      <c r="D492" s="42"/>
+    <row r="492" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A492" s="38" t="s">
+        <v>440</v>
+      </c>
+      <c r="B492" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C492" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D492" s="44" t="s">
+        <v>448</v>
+      </c>
       <c r="E492" s="20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F492" s="20" t="s">
-        <v>451</v>
+        <v>413</v>
       </c>
       <c r="G492" s="20" t="s">
-        <v>452</v>
+        <v>414</v>
       </c>
       <c r="H492" s="20" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="J492" s="2"/>
       <c r="K492" s="2"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B493" s="39"/>
-      <c r="D493" s="42"/>
+      <c r="D493" s="44"/>
       <c r="E493" s="20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F493" s="20" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="G493" s="20" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
       <c r="J493" s="2"/>
       <c r="K493" s="2"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B494" s="19"/>
+    <row r="494" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B494" s="39"/>
+      <c r="D494" s="44"/>
+      <c r="E494" s="20">
+        <v>3</v>
+      </c>
+      <c r="F494" s="20" t="s">
+        <v>450</v>
+      </c>
+      <c r="G494" s="20" t="s">
+        <v>451</v>
+      </c>
+      <c r="H494" s="20" t="s">
+        <v>418</v>
+      </c>
       <c r="J494" s="2"/>
       <c r="K494" s="2"/>
     </row>
-    <row r="495" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A495" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="B495" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C495" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D495" s="42" t="s">
-        <v>448</v>
-      </c>
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B495" s="39"/>
+      <c r="D495" s="44"/>
       <c r="E495" s="20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F495" s="20" t="s">
-        <v>414</v>
+        <v>438</v>
       </c>
       <c r="G495" s="20" t="s">
-        <v>415</v>
-      </c>
-      <c r="H495" s="20" t="s">
-        <v>416</v>
+        <v>439</v>
       </c>
       <c r="J495" s="2"/>
       <c r="K495" s="2"/>
     </row>
-    <row r="496" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B496" s="39"/>
-      <c r="D496" s="42"/>
-      <c r="E496" s="20">
-        <v>2</v>
-      </c>
-      <c r="F496" s="20" t="s">
-        <v>443</v>
-      </c>
-      <c r="G496" s="20" t="s">
-        <v>454</v>
-      </c>
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B496" s="19"/>
       <c r="J496" s="2"/>
       <c r="K496" s="2"/>
     </row>
-    <row r="497" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B497" s="39"/>
-      <c r="D497" s="42"/>
+    <row r="497" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A497" s="38" t="s">
+        <v>441</v>
+      </c>
+      <c r="B497" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C497" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D497" s="44" t="s">
+        <v>447</v>
+      </c>
       <c r="E497" s="20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F497" s="20" t="s">
-        <v>451</v>
+        <v>413</v>
       </c>
       <c r="G497" s="20" t="s">
-        <v>452</v>
+        <v>414</v>
       </c>
       <c r="H497" s="20" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="J497" s="2"/>
       <c r="K497" s="2"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B498" s="39"/>
-      <c r="D498" s="42"/>
+      <c r="D498" s="44"/>
       <c r="E498" s="20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F498" s="20" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G498" s="20" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
       <c r="J498" s="2"/>
       <c r="K498" s="2"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B499" s="19"/>
+    <row r="499" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B499" s="39"/>
+      <c r="D499" s="44"/>
+      <c r="E499" s="20">
+        <v>3</v>
+      </c>
+      <c r="F499" s="20" t="s">
+        <v>450</v>
+      </c>
+      <c r="G499" s="20" t="s">
+        <v>451</v>
+      </c>
+      <c r="H499" s="20" t="s">
+        <v>418</v>
+      </c>
       <c r="J499" s="2"/>
       <c r="K499" s="2"/>
     </row>
-    <row r="500" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A500" s="38" t="s">
-        <v>453</v>
-      </c>
-      <c r="B500" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C500" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D500" s="42" t="s">
-        <v>460</v>
-      </c>
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B500" s="39"/>
+      <c r="D500" s="44"/>
       <c r="E500" s="20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F500" s="20" t="s">
-        <v>414</v>
+        <v>449</v>
       </c>
       <c r="G500" s="20" t="s">
-        <v>415</v>
-      </c>
-      <c r="H500" s="20" t="s">
-        <v>416</v>
+        <v>439</v>
       </c>
       <c r="J500" s="2"/>
       <c r="K500" s="2"/>
     </row>
-    <row r="501" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B501" s="39"/>
-      <c r="D501" s="42"/>
-      <c r="E501" s="20">
-        <v>2</v>
-      </c>
-      <c r="F501" s="20" t="s">
-        <v>456</v>
-      </c>
-      <c r="G501" s="20" t="s">
-        <v>457</v>
-      </c>
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B501" s="19"/>
       <c r="J501" s="2"/>
       <c r="K501" s="2"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B502" s="39"/>
-      <c r="D502" s="42"/>
+    <row r="502" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A502" s="38" t="s">
+        <v>452</v>
+      </c>
+      <c r="B502" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C502" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D502" s="44" t="s">
+        <v>459</v>
+      </c>
       <c r="E502" s="20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F502" s="20" t="s">
-        <v>451</v>
+        <v>413</v>
       </c>
       <c r="G502" s="20" t="s">
-        <v>458</v>
+        <v>414</v>
       </c>
       <c r="H502" s="20" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="J502" s="2"/>
       <c r="K502" s="2"/>
     </row>
-    <row r="503" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B503" s="39"/>
-      <c r="D503" s="42"/>
+      <c r="D503" s="44"/>
       <c r="E503" s="20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F503" s="20" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="G503" s="20" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="J503" s="2"/>
       <c r="K503" s="2"/>
     </row>
     <row r="504" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B504" s="19"/>
+      <c r="B504" s="39"/>
+      <c r="D504" s="44"/>
+      <c r="E504" s="20">
+        <v>3</v>
+      </c>
+      <c r="F504" s="20" t="s">
+        <v>450</v>
+      </c>
+      <c r="G504" s="20" t="s">
+        <v>457</v>
+      </c>
+      <c r="H504" s="20" t="s">
+        <v>418</v>
+      </c>
       <c r="J504" s="2"/>
       <c r="K504" s="2"/>
     </row>
-    <row r="505" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A505" s="38" t="s">
-        <v>459</v>
-      </c>
-      <c r="B505" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C505" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D505" s="42" t="s">
-        <v>464</v>
-      </c>
+    <row r="505" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="B505" s="39"/>
+      <c r="D505" s="44"/>
       <c r="E505" s="20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F505" s="20" t="s">
-        <v>414</v>
+        <v>460</v>
       </c>
       <c r="G505" s="20" t="s">
-        <v>415</v>
-      </c>
-      <c r="H505" s="20" t="s">
-        <v>416</v>
+        <v>461</v>
       </c>
       <c r="J505" s="2"/>
       <c r="K505" s="2"/>
     </row>
-    <row r="506" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B506" s="39"/>
-      <c r="D506" s="42"/>
-      <c r="E506" s="20">
-        <v>2</v>
-      </c>
-      <c r="F506" s="20" t="s">
-        <v>498</v>
-      </c>
-      <c r="G506" s="20" t="s">
-        <v>467</v>
-      </c>
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B506" s="19"/>
       <c r="J506" s="2"/>
       <c r="K506" s="2"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B507" s="39"/>
-      <c r="D507" s="42"/>
+    <row r="507" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A507" s="38" t="s">
+        <v>458</v>
+      </c>
+      <c r="B507" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C507" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D507" s="44" t="s">
+        <v>463</v>
+      </c>
       <c r="E507" s="20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F507" s="20" t="s">
-        <v>451</v>
+        <v>413</v>
       </c>
       <c r="G507" s="20" t="s">
-        <v>458</v>
+        <v>414</v>
       </c>
       <c r="H507" s="20" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="J507" s="2"/>
       <c r="K507" s="2"/>
     </row>
     <row r="508" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B508" s="39"/>
-      <c r="D508" s="42"/>
+      <c r="D508" s="44"/>
       <c r="E508" s="20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F508" s="20" t="s">
-        <v>465</v>
+        <v>497</v>
       </c>
       <c r="G508" s="20" t="s">
         <v>466</v>
@@ -11194,1416 +11233,1441 @@
       <c r="K508" s="2"/>
     </row>
     <row r="509" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B509" s="19"/>
+      <c r="B509" s="39"/>
+      <c r="D509" s="44"/>
+      <c r="E509" s="20">
+        <v>3</v>
+      </c>
+      <c r="F509" s="20" t="s">
+        <v>450</v>
+      </c>
+      <c r="G509" s="20" t="s">
+        <v>457</v>
+      </c>
+      <c r="H509" s="20" t="s">
+        <v>418</v>
+      </c>
       <c r="J509" s="2"/>
       <c r="K509" s="2"/>
     </row>
-    <row r="510" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A510" s="38" t="s">
-        <v>463</v>
-      </c>
-      <c r="B510" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C510" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D510" s="42" t="s">
-        <v>469</v>
-      </c>
+    <row r="510" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B510" s="39"/>
+      <c r="D510" s="44"/>
       <c r="E510" s="20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F510" s="20" t="s">
-        <v>414</v>
+        <v>464</v>
       </c>
       <c r="G510" s="20" t="s">
-        <v>415</v>
-      </c>
-      <c r="H510" s="20" t="s">
-        <v>416</v>
+        <v>465</v>
       </c>
       <c r="J510" s="2"/>
       <c r="K510" s="2"/>
     </row>
-    <row r="511" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B511" s="39"/>
-      <c r="D511" s="42"/>
-      <c r="E511" s="20">
-        <v>2</v>
-      </c>
-      <c r="F511" s="20" t="s">
-        <v>499</v>
-      </c>
-      <c r="G511" s="20" t="s">
-        <v>468</v>
-      </c>
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B511" s="19"/>
       <c r="J511" s="2"/>
       <c r="K511" s="2"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B512" s="39"/>
-      <c r="D512" s="42"/>
+    <row r="512" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A512" s="38" t="s">
+        <v>462</v>
+      </c>
+      <c r="B512" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C512" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D512" s="44" t="s">
+        <v>468</v>
+      </c>
       <c r="E512" s="20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F512" s="20" t="s">
-        <v>451</v>
+        <v>413</v>
       </c>
       <c r="G512" s="20" t="s">
-        <v>458</v>
+        <v>414</v>
       </c>
       <c r="H512" s="20" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="J512" s="2"/>
       <c r="K512" s="2"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B513" s="39"/>
-      <c r="D513" s="42"/>
+      <c r="D513" s="44"/>
       <c r="E513" s="20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F513" s="20" t="s">
-        <v>470</v>
+        <v>498</v>
       </c>
       <c r="G513" s="20" t="s">
-        <v>471</v>
-      </c>
-      <c r="H513" s="20" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="J513" s="2"/>
       <c r="K513" s="2"/>
     </row>
     <row r="514" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B514" s="19"/>
+      <c r="B514" s="39"/>
+      <c r="D514" s="44"/>
+      <c r="E514" s="20">
+        <v>3</v>
+      </c>
+      <c r="F514" s="20" t="s">
+        <v>450</v>
+      </c>
+      <c r="G514" s="20" t="s">
+        <v>457</v>
+      </c>
+      <c r="H514" s="20" t="s">
+        <v>418</v>
+      </c>
       <c r="J514" s="2"/>
       <c r="K514" s="2"/>
     </row>
-    <row r="515" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A515" s="38" t="s">
-        <v>473</v>
-      </c>
-      <c r="B515" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C515" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D515" s="42" t="s">
-        <v>477</v>
-      </c>
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B515" s="39"/>
+      <c r="D515" s="44"/>
       <c r="E515" s="20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F515" s="20" t="s">
-        <v>414</v>
+        <v>469</v>
       </c>
       <c r="G515" s="20" t="s">
-        <v>415</v>
+        <v>470</v>
       </c>
       <c r="H515" s="20" t="s">
-        <v>416</v>
+        <v>471</v>
       </c>
       <c r="J515" s="2"/>
       <c r="K515" s="2"/>
     </row>
-    <row r="516" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B516" s="39"/>
-      <c r="D516" s="42"/>
-      <c r="E516" s="20">
-        <v>2</v>
-      </c>
-      <c r="F516" s="20" t="s">
-        <v>499</v>
-      </c>
-      <c r="G516" s="20" t="s">
-        <v>468</v>
-      </c>
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B516" s="19"/>
       <c r="J516" s="2"/>
       <c r="K516" s="2"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B517" s="39"/>
-      <c r="D517" s="42"/>
+    <row r="517" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A517" s="38" t="s">
+        <v>472</v>
+      </c>
+      <c r="B517" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C517" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D517" s="44" t="s">
+        <v>476</v>
+      </c>
       <c r="E517" s="20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F517" s="20" t="s">
-        <v>474</v>
+        <v>413</v>
       </c>
       <c r="G517" s="20" t="s">
-        <v>475</v>
+        <v>414</v>
       </c>
       <c r="H517" s="20" t="s">
-        <v>472</v>
+        <v>415</v>
       </c>
       <c r="J517" s="2"/>
       <c r="K517" s="2"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B518" s="19"/>
+    <row r="518" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B518" s="39"/>
+      <c r="D518" s="44"/>
+      <c r="E518" s="20">
+        <v>2</v>
+      </c>
+      <c r="F518" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="G518" s="20" t="s">
+        <v>467</v>
+      </c>
       <c r="J518" s="2"/>
       <c r="K518" s="2"/>
     </row>
-    <row r="519" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A519" s="38" t="s">
-        <v>480</v>
-      </c>
-      <c r="B519" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C519" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D519" s="42" t="s">
-        <v>476</v>
-      </c>
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B519" s="39"/>
+      <c r="D519" s="44"/>
       <c r="E519" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F519" s="20" t="s">
-        <v>414</v>
+        <v>473</v>
       </c>
       <c r="G519" s="20" t="s">
-        <v>415</v>
+        <v>474</v>
       </c>
       <c r="H519" s="20" t="s">
-        <v>416</v>
+        <v>471</v>
       </c>
       <c r="J519" s="2"/>
       <c r="K519" s="2"/>
     </row>
-    <row r="520" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B520" s="39"/>
-      <c r="D520" s="42"/>
-      <c r="E520" s="20">
-        <v>2</v>
-      </c>
-      <c r="F520" s="20" t="s">
-        <v>499</v>
-      </c>
-      <c r="G520" s="20" t="s">
-        <v>468</v>
-      </c>
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B520" s="19"/>
       <c r="J520" s="2"/>
       <c r="K520" s="2"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B521" s="39"/>
-      <c r="D521" s="42"/>
+    <row r="521" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A521" s="38" t="s">
+        <v>479</v>
+      </c>
+      <c r="B521" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C521" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D521" s="44" t="s">
+        <v>475</v>
+      </c>
       <c r="E521" s="20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F521" s="20" t="s">
-        <v>474</v>
+        <v>413</v>
       </c>
       <c r="G521" s="20" t="s">
-        <v>475</v>
+        <v>414</v>
       </c>
       <c r="H521" s="20" t="s">
-        <v>472</v>
+        <v>415</v>
       </c>
       <c r="J521" s="2"/>
       <c r="K521" s="2"/>
     </row>
-    <row r="522" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B522" s="39"/>
-      <c r="D522" s="42"/>
+      <c r="D522" s="44"/>
       <c r="E522" s="20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F522" s="20" t="s">
-        <v>478</v>
+        <v>498</v>
       </c>
       <c r="G522" s="20" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="J522" s="2"/>
       <c r="K522" s="2"/>
     </row>
     <row r="523" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B523" s="19"/>
+      <c r="B523" s="39"/>
+      <c r="D523" s="44"/>
+      <c r="E523" s="20">
+        <v>3</v>
+      </c>
+      <c r="F523" s="20" t="s">
+        <v>473</v>
+      </c>
+      <c r="G523" s="20" t="s">
+        <v>474</v>
+      </c>
+      <c r="H523" s="20" t="s">
+        <v>471</v>
+      </c>
       <c r="J523" s="2"/>
       <c r="K523" s="2"/>
     </row>
-    <row r="524" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A524" s="38" t="s">
-        <v>481</v>
-      </c>
-      <c r="B524" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C524" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D524" s="42" t="s">
-        <v>482</v>
-      </c>
+    <row r="524" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B524" s="39"/>
+      <c r="D524" s="44"/>
       <c r="E524" s="20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F524" s="20" t="s">
-        <v>414</v>
+        <v>477</v>
       </c>
       <c r="G524" s="20" t="s">
-        <v>415</v>
-      </c>
-      <c r="H524" s="20" t="s">
-        <v>416</v>
+        <v>478</v>
       </c>
       <c r="J524" s="2"/>
       <c r="K524" s="2"/>
     </row>
-    <row r="525" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B525" s="39"/>
-      <c r="D525" s="42"/>
-      <c r="E525" s="20">
-        <v>2</v>
-      </c>
-      <c r="F525" s="20" t="s">
-        <v>499</v>
-      </c>
-      <c r="G525" s="20" t="s">
-        <v>468</v>
-      </c>
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B525" s="19"/>
       <c r="J525" s="2"/>
       <c r="K525" s="2"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B526" s="39"/>
-      <c r="D526" s="42"/>
+    <row r="526" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A526" s="38" t="s">
+        <v>480</v>
+      </c>
+      <c r="B526" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C526" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D526" s="44" t="s">
+        <v>481</v>
+      </c>
       <c r="E526" s="20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F526" s="20" t="s">
-        <v>474</v>
+        <v>413</v>
       </c>
       <c r="G526" s="20" t="s">
-        <v>475</v>
+        <v>414</v>
       </c>
       <c r="H526" s="20" t="s">
-        <v>472</v>
+        <v>415</v>
       </c>
       <c r="J526" s="2"/>
       <c r="K526" s="2"/>
     </row>
-    <row r="527" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B527" s="39"/>
-      <c r="D527" s="42"/>
+      <c r="D527" s="44"/>
       <c r="E527" s="20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F527" s="20" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="G527" s="20" t="s">
-        <v>484</v>
+        <v>467</v>
       </c>
       <c r="J527" s="2"/>
       <c r="K527" s="2"/>
     </row>
     <row r="528" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B528" s="19"/>
+      <c r="B528" s="39"/>
+      <c r="D528" s="44"/>
+      <c r="E528" s="20">
+        <v>3</v>
+      </c>
+      <c r="F528" s="20" t="s">
+        <v>473</v>
+      </c>
+      <c r="G528" s="20" t="s">
+        <v>474</v>
+      </c>
+      <c r="H528" s="20" t="s">
+        <v>471</v>
+      </c>
       <c r="J528" s="2"/>
       <c r="K528" s="2"/>
     </row>
-    <row r="529" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A529" s="38" t="s">
-        <v>485</v>
-      </c>
-      <c r="B529" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C529" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D529" s="42" t="s">
-        <v>486</v>
-      </c>
+    <row r="529" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B529" s="39"/>
+      <c r="D529" s="44"/>
       <c r="E529" s="20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F529" s="20" t="s">
-        <v>414</v>
+        <v>482</v>
       </c>
       <c r="G529" s="20" t="s">
-        <v>415</v>
-      </c>
-      <c r="H529" s="20" t="s">
-        <v>416</v>
+        <v>483</v>
       </c>
       <c r="J529" s="2"/>
       <c r="K529" s="2"/>
     </row>
-    <row r="530" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B530" s="39"/>
-      <c r="D530" s="42"/>
-      <c r="E530" s="20">
-        <v>2</v>
-      </c>
-      <c r="F530" s="20" t="s">
-        <v>497</v>
-      </c>
-      <c r="G530" s="20" t="s">
-        <v>487</v>
-      </c>
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B530" s="19"/>
       <c r="J530" s="2"/>
       <c r="K530" s="2"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B531" s="39"/>
-      <c r="D531" s="42"/>
+    <row r="531" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A531" s="38" t="s">
+        <v>484</v>
+      </c>
+      <c r="B531" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C531" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D531" s="44" t="s">
+        <v>485</v>
+      </c>
       <c r="E531" s="20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F531" s="20" t="s">
-        <v>488</v>
+        <v>413</v>
       </c>
       <c r="G531" s="20" t="s">
-        <v>489</v>
+        <v>414</v>
+      </c>
+      <c r="H531" s="20" t="s">
+        <v>415</v>
       </c>
       <c r="J531" s="2"/>
       <c r="K531" s="2"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B532" s="19"/>
+    <row r="532" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B532" s="39"/>
+      <c r="D532" s="44"/>
+      <c r="E532" s="20">
+        <v>2</v>
+      </c>
+      <c r="F532" s="20" t="s">
+        <v>496</v>
+      </c>
+      <c r="G532" s="20" t="s">
+        <v>486</v>
+      </c>
       <c r="J532" s="2"/>
       <c r="K532" s="2"/>
     </row>
-    <row r="533" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A533" s="38" t="s">
-        <v>490</v>
-      </c>
-      <c r="B533" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C533" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D533" s="42" t="s">
-        <v>491</v>
-      </c>
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B533" s="39"/>
+      <c r="D533" s="44"/>
       <c r="E533" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F533" s="20" t="s">
-        <v>414</v>
+        <v>487</v>
       </c>
       <c r="G533" s="20" t="s">
-        <v>415</v>
-      </c>
-      <c r="H533" s="20" t="s">
-        <v>416</v>
+        <v>488</v>
       </c>
       <c r="J533" s="2"/>
       <c r="K533" s="2"/>
     </row>
-    <row r="534" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B534" s="39"/>
-      <c r="D534" s="42"/>
-      <c r="E534" s="20">
-        <v>2</v>
-      </c>
-      <c r="F534" s="20" t="s">
-        <v>496</v>
-      </c>
-      <c r="G534" s="20" t="s">
-        <v>494</v>
-      </c>
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B534" s="19"/>
       <c r="J534" s="2"/>
       <c r="K534" s="2"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B535" s="39"/>
-      <c r="D535" s="42"/>
+    <row r="535" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A535" s="38" t="s">
+        <v>489</v>
+      </c>
+      <c r="B535" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C535" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D535" s="44" t="s">
+        <v>490</v>
+      </c>
       <c r="E535" s="20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F535" s="20" t="s">
-        <v>492</v>
+        <v>413</v>
       </c>
       <c r="G535" s="20" t="s">
-        <v>493</v>
+        <v>414</v>
+      </c>
+      <c r="H535" s="20" t="s">
+        <v>415</v>
       </c>
       <c r="J535" s="2"/>
       <c r="K535" s="2"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B536" s="19"/>
+    <row r="536" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B536" s="39"/>
+      <c r="D536" s="44"/>
+      <c r="E536" s="20">
+        <v>2</v>
+      </c>
+      <c r="F536" s="20" t="s">
+        <v>495</v>
+      </c>
+      <c r="G536" s="20" t="s">
+        <v>493</v>
+      </c>
       <c r="J536" s="2"/>
       <c r="K536" s="2"/>
     </row>
-    <row r="537" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A537" s="38" t="s">
-        <v>495</v>
-      </c>
-      <c r="B537" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C537" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D537" s="42" t="s">
-        <v>505</v>
-      </c>
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B537" s="39"/>
+      <c r="D537" s="44"/>
       <c r="E537" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F537" s="20" t="s">
-        <v>414</v>
+        <v>491</v>
       </c>
       <c r="G537" s="20" t="s">
-        <v>415</v>
-      </c>
-      <c r="H537" s="20" t="s">
-        <v>416</v>
+        <v>492</v>
       </c>
       <c r="J537" s="2"/>
       <c r="K537" s="2"/>
     </row>
     <row r="538" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B538" s="39"/>
-      <c r="D538" s="42"/>
-      <c r="E538" s="20">
-        <v>2</v>
-      </c>
-      <c r="F538" s="20" t="s">
-        <v>500</v>
-      </c>
-      <c r="G538" s="20" t="s">
-        <v>501</v>
-      </c>
+      <c r="B538" s="19"/>
       <c r="J538" s="2"/>
       <c r="K538" s="2"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B539" s="39"/>
-      <c r="D539" s="42"/>
+    <row r="539" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A539" s="38" t="s">
+        <v>494</v>
+      </c>
+      <c r="B539" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C539" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D539" s="44" t="s">
+        <v>504</v>
+      </c>
       <c r="E539" s="20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F539" s="20" t="s">
-        <v>502</v>
+        <v>413</v>
       </c>
       <c r="G539" s="20" t="s">
-        <v>503</v>
+        <v>414</v>
+      </c>
+      <c r="H539" s="20" t="s">
+        <v>415</v>
       </c>
       <c r="J539" s="2"/>
       <c r="K539" s="2"/>
     </row>
     <row r="540" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B540" s="19"/>
-      <c r="D540" s="42"/>
+      <c r="B540" s="39"/>
+      <c r="D540" s="44"/>
       <c r="E540" s="20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F540" s="20" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="G540" s="20" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="J540" s="2"/>
       <c r="K540" s="2"/>
     </row>
     <row r="541" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B541" s="19"/>
+      <c r="B541" s="39"/>
+      <c r="D541" s="44"/>
+      <c r="E541" s="20">
+        <v>3</v>
+      </c>
+      <c r="F541" s="20" t="s">
+        <v>501</v>
+      </c>
+      <c r="G541" s="20" t="s">
+        <v>502</v>
+      </c>
       <c r="J541" s="2"/>
       <c r="K541" s="2"/>
     </row>
-    <row r="542" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A542" s="38" t="s">
-        <v>504</v>
-      </c>
-      <c r="B542" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C542" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D542" s="42" t="s">
-        <v>506</v>
-      </c>
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B542" s="19"/>
+      <c r="D542" s="44"/>
       <c r="E542" s="20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F542" s="20" t="s">
-        <v>414</v>
+        <v>507</v>
       </c>
       <c r="G542" s="20" t="s">
-        <v>415</v>
-      </c>
-      <c r="H542" s="20" t="s">
-        <v>416</v>
+        <v>508</v>
       </c>
       <c r="J542" s="2"/>
       <c r="K542" s="2"/>
     </row>
     <row r="543" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B543" s="39"/>
-      <c r="D543" s="42"/>
-      <c r="E543" s="20">
-        <v>2</v>
-      </c>
-      <c r="F543" s="20" t="s">
-        <v>500</v>
-      </c>
-      <c r="G543" s="20" t="s">
-        <v>501</v>
-      </c>
+      <c r="B543" s="19"/>
       <c r="J543" s="2"/>
       <c r="K543" s="2"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B544" s="39"/>
-      <c r="D544" s="42"/>
+    <row r="544" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A544" s="38" t="s">
+        <v>503</v>
+      </c>
+      <c r="B544" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C544" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D544" s="44" t="s">
+        <v>505</v>
+      </c>
       <c r="E544" s="20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F544" s="20" t="s">
-        <v>507</v>
+        <v>413</v>
       </c>
       <c r="G544" s="20" t="s">
-        <v>510</v>
+        <v>414</v>
+      </c>
+      <c r="H544" s="20" t="s">
+        <v>415</v>
       </c>
       <c r="J544" s="2"/>
       <c r="K544" s="2"/>
     </row>
     <row r="545" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B545" s="19"/>
+      <c r="B545" s="39"/>
+      <c r="D545" s="44"/>
+      <c r="E545" s="20">
+        <v>2</v>
+      </c>
+      <c r="F545" s="20" t="s">
+        <v>499</v>
+      </c>
+      <c r="G545" s="20" t="s">
+        <v>500</v>
+      </c>
       <c r="J545" s="2"/>
       <c r="K545" s="2"/>
     </row>
-    <row r="546" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A546" s="38" t="s">
-        <v>511</v>
-      </c>
-      <c r="B546" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C546" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D546" s="42" t="s">
-        <v>512</v>
-      </c>
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B546" s="39"/>
+      <c r="D546" s="44"/>
       <c r="E546" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F546" s="20" t="s">
-        <v>414</v>
+        <v>506</v>
       </c>
       <c r="G546" s="20" t="s">
-        <v>415</v>
-      </c>
-      <c r="H546" s="20" t="s">
-        <v>416</v>
+        <v>509</v>
       </c>
       <c r="J546" s="2"/>
       <c r="K546" s="2"/>
     </row>
     <row r="547" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B547" s="39"/>
-      <c r="D547" s="42"/>
-      <c r="E547" s="20">
-        <v>2</v>
-      </c>
-      <c r="F547" s="20" t="s">
-        <v>500</v>
-      </c>
-      <c r="G547" s="20" t="s">
-        <v>501</v>
-      </c>
+      <c r="B547" s="19"/>
       <c r="J547" s="2"/>
       <c r="K547" s="2"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B548" s="39"/>
-      <c r="D548" s="42"/>
+    <row r="548" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A548" s="38" t="s">
+        <v>510</v>
+      </c>
+      <c r="B548" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C548" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D548" s="44" t="s">
+        <v>511</v>
+      </c>
       <c r="E548" s="20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F548" s="20" t="s">
-        <v>507</v>
+        <v>413</v>
       </c>
       <c r="G548" s="20" t="s">
-        <v>510</v>
+        <v>414</v>
+      </c>
+      <c r="H548" s="20" t="s">
+        <v>415</v>
       </c>
       <c r="J548" s="2"/>
       <c r="K548" s="2"/>
     </row>
     <row r="549" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B549" s="19"/>
-      <c r="D549" s="42"/>
+      <c r="B549" s="39"/>
+      <c r="D549" s="44"/>
       <c r="E549" s="20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F549" s="20" t="s">
-        <v>280</v>
+        <v>499</v>
       </c>
       <c r="G549" s="20" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="J549" s="2"/>
       <c r="K549" s="2"/>
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B550" s="19"/>
+      <c r="B550" s="39"/>
+      <c r="D550" s="44"/>
+      <c r="E550" s="20">
+        <v>3</v>
+      </c>
+      <c r="F550" s="20" t="s">
+        <v>506</v>
+      </c>
+      <c r="G550" s="20" t="s">
+        <v>509</v>
+      </c>
       <c r="J550" s="2"/>
       <c r="K550" s="2"/>
     </row>
-    <row r="551" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A551" s="38" t="s">
-        <v>514</v>
-      </c>
-      <c r="B551" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C551" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D551" s="42" t="s">
-        <v>515</v>
-      </c>
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B551" s="19"/>
+      <c r="D551" s="44"/>
       <c r="E551" s="20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F551" s="20" t="s">
-        <v>414</v>
+        <v>280</v>
       </c>
       <c r="G551" s="20" t="s">
-        <v>415</v>
-      </c>
-      <c r="H551" s="20" t="s">
-        <v>416</v>
+        <v>512</v>
       </c>
       <c r="J551" s="2"/>
       <c r="K551" s="2"/>
     </row>
-    <row r="552" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B552" s="39"/>
-      <c r="D552" s="42"/>
-      <c r="E552" s="20">
-        <v>2</v>
-      </c>
-      <c r="F552" s="20" t="s">
-        <v>516</v>
-      </c>
-      <c r="G552" s="20" t="s">
-        <v>517</v>
-      </c>
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B552" s="19"/>
       <c r="J552" s="2"/>
       <c r="K552" s="2"/>
     </row>
-    <row r="553" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B553" s="39"/>
-      <c r="D553" s="42"/>
+    <row r="553" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A553" s="38" t="s">
+        <v>513</v>
+      </c>
+      <c r="B553" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C553" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D553" s="44" t="s">
+        <v>514</v>
+      </c>
       <c r="E553" s="20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F553" s="20" t="s">
-        <v>518</v>
+        <v>413</v>
       </c>
       <c r="G553" s="20" t="s">
-        <v>519</v>
+        <v>414</v>
+      </c>
+      <c r="H553" s="20" t="s">
+        <v>415</v>
       </c>
       <c r="J553" s="2"/>
       <c r="K553" s="2"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B554" s="19"/>
+    <row r="554" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B554" s="39"/>
+      <c r="D554" s="44"/>
+      <c r="E554" s="20">
+        <v>2</v>
+      </c>
+      <c r="F554" s="20" t="s">
+        <v>515</v>
+      </c>
+      <c r="G554" s="20" t="s">
+        <v>516</v>
+      </c>
       <c r="J554" s="2"/>
       <c r="K554" s="2"/>
     </row>
-    <row r="555" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A555" s="38" t="s">
-        <v>524</v>
-      </c>
-      <c r="B555" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C555" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D555" s="42" t="s">
-        <v>520</v>
-      </c>
+    <row r="555" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B555" s="39"/>
+      <c r="D555" s="44"/>
       <c r="E555" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F555" s="20" t="s">
-        <v>414</v>
+        <v>517</v>
       </c>
       <c r="G555" s="20" t="s">
-        <v>415</v>
-      </c>
-      <c r="H555" s="20" t="s">
-        <v>416</v>
+        <v>518</v>
       </c>
       <c r="J555" s="2"/>
       <c r="K555" s="2"/>
     </row>
-    <row r="556" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B556" s="39"/>
-      <c r="D556" s="42"/>
-      <c r="E556" s="20">
-        <v>2</v>
-      </c>
-      <c r="F556" s="20" t="s">
-        <v>522</v>
-      </c>
-      <c r="G556" s="20" t="s">
-        <v>521</v>
-      </c>
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B556" s="19"/>
       <c r="J556" s="2"/>
       <c r="K556" s="2"/>
     </row>
-    <row r="557" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B557" s="39"/>
-      <c r="D557" s="42"/>
+    <row r="557" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A557" s="38" t="s">
+        <v>523</v>
+      </c>
+      <c r="B557" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C557" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D557" s="44" t="s">
+        <v>519</v>
+      </c>
       <c r="E557" s="20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F557" s="20" t="s">
-        <v>518</v>
+        <v>413</v>
       </c>
       <c r="G557" s="20" t="s">
-        <v>523</v>
+        <v>414</v>
+      </c>
+      <c r="H557" s="20" t="s">
+        <v>415</v>
       </c>
       <c r="J557" s="2"/>
       <c r="K557" s="2"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B558" s="19"/>
+    <row r="558" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B558" s="39"/>
+      <c r="D558" s="44"/>
+      <c r="E558" s="20">
+        <v>2</v>
+      </c>
+      <c r="F558" s="20" t="s">
+        <v>521</v>
+      </c>
+      <c r="G558" s="20" t="s">
+        <v>520</v>
+      </c>
       <c r="J558" s="2"/>
       <c r="K558" s="2"/>
     </row>
-    <row r="559" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A559" s="38" t="s">
-        <v>536</v>
-      </c>
-      <c r="B559" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C559" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D559" s="42" t="s">
-        <v>531</v>
-      </c>
+    <row r="559" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B559" s="39"/>
+      <c r="D559" s="44"/>
       <c r="E559" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F559" s="20" t="s">
-        <v>414</v>
+        <v>517</v>
       </c>
       <c r="G559" s="20" t="s">
-        <v>415</v>
-      </c>
-      <c r="H559" s="20" t="s">
-        <v>416</v>
+        <v>522</v>
       </c>
       <c r="J559" s="2"/>
       <c r="K559" s="2"/>
     </row>
     <row r="560" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B560" s="39"/>
-      <c r="D560" s="42"/>
-      <c r="E560" s="20">
-        <v>2</v>
-      </c>
-      <c r="F560" s="20" t="s">
-        <v>525</v>
-      </c>
-      <c r="G560" s="20" t="s">
-        <v>526</v>
-      </c>
+      <c r="B560" s="19"/>
       <c r="J560" s="2"/>
       <c r="K560" s="2"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B561" s="39"/>
-      <c r="D561" s="42"/>
+    <row r="561" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A561" s="38" t="s">
+        <v>535</v>
+      </c>
+      <c r="B561" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C561" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D561" s="44" t="s">
+        <v>530</v>
+      </c>
       <c r="E561" s="20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F561" s="20" t="s">
-        <v>527</v>
+        <v>413</v>
       </c>
       <c r="G561" s="20" t="s">
-        <v>528</v>
+        <v>414</v>
+      </c>
+      <c r="H561" s="20" t="s">
+        <v>415</v>
       </c>
       <c r="J561" s="2"/>
       <c r="K561" s="2"/>
     </row>
     <row r="562" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B562" s="19"/>
-      <c r="D562" s="42"/>
+      <c r="B562" s="39"/>
+      <c r="D562" s="44"/>
       <c r="E562" s="20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F562" s="20" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="G562" s="20" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="J562" s="2"/>
       <c r="K562" s="2"/>
     </row>
     <row r="563" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B563" s="19"/>
+      <c r="B563" s="39"/>
+      <c r="D563" s="44"/>
+      <c r="E563" s="20">
+        <v>3</v>
+      </c>
+      <c r="F563" s="20" t="s">
+        <v>526</v>
+      </c>
+      <c r="G563" s="20" t="s">
+        <v>527</v>
+      </c>
       <c r="J563" s="2"/>
       <c r="K563" s="2"/>
     </row>
-    <row r="564" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A564" s="38" t="s">
-        <v>537</v>
-      </c>
-      <c r="B564" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C564" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D564" s="42" t="s">
-        <v>532</v>
-      </c>
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B564" s="19"/>
+      <c r="D564" s="44"/>
       <c r="E564" s="20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F564" s="20" t="s">
-        <v>414</v>
+        <v>528</v>
       </c>
       <c r="G564" s="20" t="s">
-        <v>415</v>
-      </c>
-      <c r="H564" s="20" t="s">
-        <v>416</v>
+        <v>529</v>
       </c>
       <c r="J564" s="2"/>
       <c r="K564" s="2"/>
     </row>
     <row r="565" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B565" s="39"/>
-      <c r="D565" s="42"/>
-      <c r="E565" s="20">
-        <v>2</v>
-      </c>
-      <c r="F565" s="20" t="s">
-        <v>525</v>
-      </c>
-      <c r="G565" s="20" t="s">
-        <v>526</v>
-      </c>
+      <c r="B565" s="19"/>
       <c r="J565" s="2"/>
       <c r="K565" s="2"/>
     </row>
-    <row r="566" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B566" s="39"/>
-      <c r="D566" s="42"/>
+    <row r="566" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A566" s="38" t="s">
+        <v>536</v>
+      </c>
+      <c r="B566" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C566" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D566" s="44" t="s">
+        <v>531</v>
+      </c>
       <c r="E566" s="20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F566" s="20" t="s">
-        <v>533</v>
+        <v>413</v>
       </c>
       <c r="G566" s="20" t="s">
-        <v>528</v>
+        <v>414</v>
+      </c>
+      <c r="H566" s="20" t="s">
+        <v>415</v>
       </c>
       <c r="J566" s="2"/>
       <c r="K566" s="2"/>
     </row>
     <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B567" s="39"/>
-      <c r="D567" s="42"/>
+      <c r="D567" s="44"/>
       <c r="E567" s="20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F567" s="20" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="G567" s="20" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="J567" s="2"/>
       <c r="K567" s="2"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B568" s="19"/>
+    <row r="568" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B568" s="39"/>
+      <c r="D568" s="44"/>
+      <c r="E568" s="20">
+        <v>3</v>
+      </c>
+      <c r="F568" s="20" t="s">
+        <v>532</v>
+      </c>
+      <c r="G568" s="20" t="s">
+        <v>527</v>
+      </c>
       <c r="J568" s="2"/>
       <c r="K568" s="2"/>
     </row>
-    <row r="569" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A569" s="38" t="s">
-        <v>538</v>
-      </c>
-      <c r="B569" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C569" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D569" s="42" t="s">
-        <v>544</v>
-      </c>
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B569" s="39"/>
+      <c r="D569" s="44"/>
       <c r="E569" s="20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F569" s="20" t="s">
-        <v>414</v>
+        <v>534</v>
       </c>
       <c r="G569" s="20" t="s">
-        <v>415</v>
-      </c>
-      <c r="H569" s="20" t="s">
-        <v>416</v>
+        <v>533</v>
       </c>
       <c r="J569" s="2"/>
       <c r="K569" s="2"/>
     </row>
-    <row r="570" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B570" s="39"/>
-      <c r="D570" s="42"/>
-      <c r="E570" s="20">
-        <v>2</v>
-      </c>
-      <c r="F570" s="20" t="s">
-        <v>539</v>
-      </c>
-      <c r="G570" s="20" t="s">
-        <v>540</v>
-      </c>
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B570" s="19"/>
       <c r="J570" s="2"/>
       <c r="K570" s="2"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B571" s="39"/>
-      <c r="D571" s="42"/>
+    <row r="571" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A571" s="38" t="s">
+        <v>537</v>
+      </c>
+      <c r="B571" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C571" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D571" s="44" t="s">
+        <v>543</v>
+      </c>
       <c r="E571" s="20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F571" s="20" t="s">
-        <v>541</v>
+        <v>413</v>
       </c>
       <c r="G571" s="20" t="s">
-        <v>503</v>
+        <v>414</v>
+      </c>
+      <c r="H571" s="20" t="s">
+        <v>415</v>
       </c>
       <c r="J571" s="2"/>
       <c r="K571" s="2"/>
     </row>
     <row r="572" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B572" s="39"/>
-      <c r="D572" s="42"/>
+      <c r="D572" s="44"/>
       <c r="E572" s="20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F572" s="20" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G572" s="20" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="J572" s="2"/>
       <c r="K572" s="2"/>
     </row>
     <row r="573" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B573" s="19"/>
+      <c r="B573" s="39"/>
+      <c r="D573" s="44"/>
+      <c r="E573" s="20">
+        <v>3</v>
+      </c>
+      <c r="F573" s="20" t="s">
+        <v>540</v>
+      </c>
+      <c r="G573" s="20" t="s">
+        <v>502</v>
+      </c>
       <c r="J573" s="2"/>
       <c r="K573" s="2"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A574" s="38" t="s">
-        <v>551</v>
-      </c>
-      <c r="B574" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="C574" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D574" s="42" t="s">
-        <v>547</v>
-      </c>
+    <row r="574" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B574" s="39"/>
+      <c r="D574" s="44"/>
       <c r="E574" s="20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F574" s="20" t="s">
-        <v>545</v>
+        <v>541</v>
+      </c>
+      <c r="G574" s="20" t="s">
+        <v>542</v>
       </c>
       <c r="J574" s="2"/>
       <c r="K574" s="2"/>
     </row>
-    <row r="575" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B575" s="40"/>
-      <c r="D575" s="42"/>
-      <c r="E575" s="20">
-        <v>2</v>
-      </c>
-      <c r="F575" s="20" t="s">
-        <v>546</v>
-      </c>
-      <c r="G575" s="20" t="s">
-        <v>548</v>
-      </c>
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B575" s="19"/>
       <c r="J575" s="2"/>
       <c r="K575" s="2"/>
     </row>
-    <row r="576" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B576" s="40"/>
-      <c r="D576" s="42"/>
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A576" s="38" t="s">
+        <v>550</v>
+      </c>
+      <c r="B576" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C576" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D576" s="44" t="s">
+        <v>546</v>
+      </c>
       <c r="E576" s="20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F576" s="20" t="s">
-        <v>565</v>
-      </c>
-      <c r="G576" s="20" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="J576" s="2"/>
       <c r="K576" s="2"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B577" s="40"/>
-      <c r="D577" s="42"/>
+      <c r="D577" s="44"/>
       <c r="E577" s="20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F577" s="20" t="s">
-        <v>201</v>
+        <v>545</v>
       </c>
       <c r="G577" s="20" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="J577" s="2"/>
       <c r="K577" s="2"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B578" s="19"/>
+    <row r="578" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B578" s="40"/>
+      <c r="D578" s="44"/>
+      <c r="E578" s="20">
+        <v>3</v>
+      </c>
+      <c r="F578" s="20" t="s">
+        <v>564</v>
+      </c>
+      <c r="G578" s="20" t="s">
+        <v>548</v>
+      </c>
       <c r="J578" s="2"/>
       <c r="K578" s="2"/>
     </row>
-    <row r="579" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A579" s="38" t="s">
-        <v>552</v>
-      </c>
-      <c r="B579" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="C579" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D579" s="42" t="s">
-        <v>553</v>
-      </c>
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B579" s="40"/>
+      <c r="D579" s="44"/>
       <c r="E579" s="20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F579" s="20" t="s">
-        <v>545</v>
+        <v>201</v>
+      </c>
+      <c r="G579" s="20" t="s">
+        <v>549</v>
       </c>
       <c r="J579" s="2"/>
       <c r="K579" s="2"/>
     </row>
     <row r="580" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B580" s="40"/>
-      <c r="D580" s="42"/>
-      <c r="E580" s="20">
-        <v>2</v>
-      </c>
-      <c r="F580" s="20" t="s">
-        <v>546</v>
-      </c>
-      <c r="G580" s="20" t="s">
-        <v>548</v>
-      </c>
+      <c r="B580" s="19"/>
       <c r="J580" s="2"/>
       <c r="K580" s="2"/>
     </row>
-    <row r="581" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B581" s="40"/>
-      <c r="D581" s="42"/>
+    <row r="581" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A581" s="38" t="s">
+        <v>551</v>
+      </c>
+      <c r="B581" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C581" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D581" s="44" t="s">
+        <v>552</v>
+      </c>
       <c r="E581" s="20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F581" s="20" t="s">
-        <v>565</v>
-      </c>
-      <c r="G581" s="20" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="J581" s="2"/>
       <c r="K581" s="2"/>
     </row>
     <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B582" s="40"/>
-      <c r="D582" s="42"/>
+      <c r="D582" s="44"/>
       <c r="E582" s="20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F582" s="20" t="s">
-        <v>201</v>
+        <v>545</v>
       </c>
       <c r="G582" s="20" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="J582" s="2"/>
       <c r="K582" s="2"/>
     </row>
     <row r="583" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B583" s="19"/>
-      <c r="D583" s="42"/>
+      <c r="B583" s="40"/>
+      <c r="D583" s="44"/>
       <c r="E583" s="20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F583" s="20" t="s">
-        <v>554</v>
+        <v>564</v>
       </c>
       <c r="G583" s="20" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="J583" s="2"/>
       <c r="K583" s="2"/>
     </row>
     <row r="584" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B584" s="19"/>
+      <c r="B584" s="40"/>
+      <c r="D584" s="44"/>
+      <c r="E584" s="20">
+        <v>4</v>
+      </c>
+      <c r="F584" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="G584" s="20" t="s">
+        <v>549</v>
+      </c>
       <c r="J584" s="2"/>
       <c r="K584" s="2"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A585" s="38" t="s">
-        <v>560</v>
-      </c>
-      <c r="B585" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="C585" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D585" s="42" t="s">
-        <v>556</v>
-      </c>
+    <row r="585" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B585" s="19"/>
+      <c r="D585" s="44"/>
       <c r="E585" s="20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F585" s="20" t="s">
-        <v>545</v>
+        <v>553</v>
+      </c>
+      <c r="G585" s="20" t="s">
+        <v>554</v>
       </c>
       <c r="J585" s="2"/>
       <c r="K585" s="2"/>
     </row>
     <row r="586" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B586" s="40"/>
-      <c r="D586" s="42"/>
-      <c r="E586" s="20">
-        <v>2</v>
-      </c>
-      <c r="F586" s="20" t="s">
-        <v>546</v>
-      </c>
-      <c r="G586" s="20" t="s">
-        <v>548</v>
-      </c>
+      <c r="B586" s="19"/>
       <c r="J586" s="2"/>
       <c r="K586" s="2"/>
     </row>
-    <row r="587" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B587" s="40"/>
-      <c r="D587" s="42"/>
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A587" s="38" t="s">
+        <v>559</v>
+      </c>
+      <c r="B587" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C587" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D587" s="44" t="s">
+        <v>555</v>
+      </c>
       <c r="E587" s="20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F587" s="20" t="s">
-        <v>565</v>
-      </c>
-      <c r="G587" s="20" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="J587" s="2"/>
       <c r="K587" s="2"/>
     </row>
     <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B588" s="40"/>
-      <c r="D588" s="42"/>
+      <c r="D588" s="44"/>
       <c r="E588" s="20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F588" s="20" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="G588" s="20" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="J588" s="2"/>
       <c r="K588" s="2"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B589" s="19"/>
+    <row r="589" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B589" s="40"/>
+      <c r="D589" s="44"/>
+      <c r="E589" s="20">
+        <v>3</v>
+      </c>
+      <c r="F589" s="20" t="s">
+        <v>564</v>
+      </c>
+      <c r="G589" s="20" t="s">
+        <v>548</v>
+      </c>
       <c r="J589" s="2"/>
       <c r="K589" s="2"/>
     </row>
     <row r="590" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A590" s="38" t="s">
-        <v>559</v>
-      </c>
-      <c r="B590" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="C590" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D590" s="42" t="s">
-        <v>561</v>
-      </c>
+      <c r="B590" s="40"/>
+      <c r="D590" s="44"/>
       <c r="E590" s="20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F590" s="20" t="s">
-        <v>545</v>
+        <v>556</v>
+      </c>
+      <c r="G590" s="20" t="s">
+        <v>557</v>
       </c>
       <c r="J590" s="2"/>
       <c r="K590" s="2"/>
     </row>
     <row r="591" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B591" s="40"/>
-      <c r="D591" s="42"/>
-      <c r="E591" s="20">
-        <v>2</v>
-      </c>
-      <c r="F591" s="20" t="s">
-        <v>546</v>
-      </c>
-      <c r="G591" s="20" t="s">
-        <v>548</v>
-      </c>
+      <c r="B591" s="19"/>
       <c r="J591" s="2"/>
       <c r="K591" s="2"/>
     </row>
-    <row r="592" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B592" s="40"/>
-      <c r="D592" s="42"/>
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A592" s="38" t="s">
+        <v>558</v>
+      </c>
+      <c r="B592" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C592" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D592" s="44" t="s">
+        <v>560</v>
+      </c>
       <c r="E592" s="20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F592" s="20" t="s">
-        <v>565</v>
-      </c>
-      <c r="G592" s="20" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="J592" s="2"/>
       <c r="K592" s="2"/>
     </row>
     <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B593" s="40"/>
-      <c r="D593" s="42"/>
+      <c r="D593" s="44"/>
       <c r="E593" s="20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F593" s="20" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="G593" s="20" t="s">
-        <v>563</v>
+        <v>547</v>
       </c>
       <c r="J593" s="2"/>
       <c r="K593" s="2"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B594" s="19"/>
+    <row r="594" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B594" s="40"/>
+      <c r="D594" s="44"/>
+      <c r="E594" s="20">
+        <v>3</v>
+      </c>
+      <c r="F594" s="20" t="s">
+        <v>564</v>
+      </c>
+      <c r="G594" s="20" t="s">
+        <v>548</v>
+      </c>
       <c r="J594" s="2"/>
       <c r="K594" s="2"/>
     </row>
-    <row r="595" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A595" s="38" t="s">
-        <v>564</v>
-      </c>
-      <c r="B595" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="C595" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D595" s="42" t="s">
-        <v>568</v>
-      </c>
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B595" s="40"/>
+      <c r="D595" s="44"/>
       <c r="E595" s="20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F595" s="20" t="s">
-        <v>545</v>
+        <v>561</v>
+      </c>
+      <c r="G595" s="20" t="s">
+        <v>562</v>
       </c>
       <c r="J595" s="2"/>
       <c r="K595" s="2"/>
     </row>
-    <row r="596" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B596" s="40"/>
-      <c r="D596" s="42"/>
-      <c r="E596" s="20">
-        <v>2</v>
-      </c>
-      <c r="F596" s="20" t="s">
-        <v>546</v>
-      </c>
-      <c r="G596" s="20" t="s">
-        <v>548</v>
-      </c>
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B596" s="19"/>
       <c r="J596" s="2"/>
       <c r="K596" s="2"/>
     </row>
-    <row r="597" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B597" s="40"/>
-      <c r="D597" s="42"/>
+    <row r="597" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A597" s="38" t="s">
+        <v>563</v>
+      </c>
+      <c r="B597" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C597" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D597" s="44" t="s">
+        <v>567</v>
+      </c>
       <c r="E597" s="20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F597" s="20" t="s">
-        <v>565</v>
-      </c>
-      <c r="G597" s="20" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="J597" s="2"/>
       <c r="K597" s="2"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B598" s="40"/>
-      <c r="D598" s="42"/>
+      <c r="D598" s="44"/>
       <c r="E598" s="20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F598" s="20" t="s">
-        <v>201</v>
+        <v>545</v>
       </c>
       <c r="G598" s="20" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="J598" s="2"/>
       <c r="K598" s="2"/>
     </row>
-    <row r="599" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D599" s="42"/>
+    <row r="599" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B599" s="40"/>
+      <c r="D599" s="44"/>
       <c r="E599" s="20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F599" s="20" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G599" s="20" t="s">
-        <v>567</v>
+        <v>548</v>
       </c>
       <c r="J599" s="2"/>
       <c r="K599" s="2"/>
     </row>
     <row r="600" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B600" s="40"/>
+      <c r="D600" s="44"/>
+      <c r="E600" s="20">
+        <v>4</v>
+      </c>
+      <c r="F600" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="G600" s="20" t="s">
+        <v>549</v>
+      </c>
       <c r="J600" s="2"/>
       <c r="K600" s="2"/>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D601" s="44"/>
+      <c r="E601" s="20">
+        <v>5</v>
+      </c>
+      <c r="F601" s="20" t="s">
+        <v>565</v>
+      </c>
+      <c r="G601" s="20" t="s">
+        <v>566</v>
+      </c>
       <c r="J601" s="2"/>
       <c r="K601" s="2"/>
     </row>
@@ -12611,27 +12675,102 @@
       <c r="J602" s="2"/>
       <c r="K602" s="2"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A603" s="38" t="s">
+        <v>568</v>
+      </c>
+      <c r="B603" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="C603" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D603" s="45" t="s">
+        <v>575</v>
+      </c>
+      <c r="E603" s="20">
+        <v>1</v>
+      </c>
+      <c r="F603" s="20" t="s">
+        <v>544</v>
+      </c>
+      <c r="H603" s="20" t="s">
+        <v>32</v>
+      </c>
       <c r="J603" s="2"/>
       <c r="K603" s="2"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B604" s="42"/>
+      <c r="D604" s="45"/>
+      <c r="E604" s="20">
+        <v>2</v>
+      </c>
+      <c r="F604" s="20" t="s">
+        <v>401</v>
+      </c>
+      <c r="G604" s="20" t="s">
+        <v>569</v>
+      </c>
       <c r="J604" s="2"/>
       <c r="K604" s="2"/>
     </row>
     <row r="605" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B605" s="42"/>
+      <c r="D605" s="45"/>
+      <c r="E605" s="20">
+        <v>3</v>
+      </c>
+      <c r="F605" s="20" t="s">
+        <v>570</v>
+      </c>
+      <c r="G605" s="20" t="s">
+        <v>571</v>
+      </c>
       <c r="J605" s="2"/>
       <c r="K605" s="2"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B606" s="42"/>
+      <c r="D606" s="45"/>
+      <c r="E606" s="20">
+        <v>4</v>
+      </c>
+      <c r="F606" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="G606" s="20" t="s">
+        <v>578</v>
+      </c>
       <c r="J606" s="2"/>
       <c r="K606" s="2"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B607" s="41"/>
+      <c r="D607" s="45"/>
+      <c r="E607" s="20">
+        <v>5</v>
+      </c>
+      <c r="F607" s="20" t="s">
+        <v>579</v>
+      </c>
+      <c r="G607" s="20" t="s">
+        <v>577</v>
+      </c>
       <c r="J607" s="2"/>
       <c r="K607" s="2"/>
     </row>
     <row r="608" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D608" s="45"/>
+      <c r="E608" s="20">
+        <v>6</v>
+      </c>
+      <c r="F608" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="G608" s="20" t="s">
+        <v>549</v>
+      </c>
       <c r="J608" s="2"/>
       <c r="K608" s="2"/>
     </row>
@@ -12908,9 +13047,11 @@
       <c r="K676" s="2"/>
     </row>
     <row r="677" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J677" s="2"/>
       <c r="K677" s="2"/>
     </row>
     <row r="678" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J678" s="2"/>
       <c r="K678" s="2"/>
     </row>
     <row r="679" spans="10:11" x14ac:dyDescent="0.25">
@@ -13042,18 +13183,19 @@
     <row r="721" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K721" s="2"/>
     </row>
+    <row r="722" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K722" s="2"/>
+    </row>
+    <row r="723" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K723" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="100">
-    <mergeCell ref="D595:D599"/>
-    <mergeCell ref="D574:D577"/>
-    <mergeCell ref="D579:D583"/>
-    <mergeCell ref="D585:D588"/>
-    <mergeCell ref="D590:D593"/>
-    <mergeCell ref="D407:D412"/>
-    <mergeCell ref="D381:D385"/>
-    <mergeCell ref="D387:D391"/>
-    <mergeCell ref="D393:D398"/>
-    <mergeCell ref="D400:D405"/>
+  <mergeCells count="101">
+    <mergeCell ref="D597:D601"/>
+    <mergeCell ref="D576:D579"/>
+    <mergeCell ref="D581:D585"/>
+    <mergeCell ref="D587:D590"/>
+    <mergeCell ref="D592:D595"/>
     <mergeCell ref="D128:D130"/>
     <mergeCell ref="D123:D126"/>
     <mergeCell ref="D132:D135"/>
@@ -13062,15 +13204,21 @@
     <mergeCell ref="D110:D112"/>
     <mergeCell ref="D114:D116"/>
     <mergeCell ref="D118:D121"/>
+    <mergeCell ref="D407:D412"/>
+    <mergeCell ref="D381:D385"/>
+    <mergeCell ref="D387:D391"/>
+    <mergeCell ref="D393:D398"/>
+    <mergeCell ref="D400:D405"/>
+    <mergeCell ref="D87:D90"/>
+    <mergeCell ref="D92:D96"/>
+    <mergeCell ref="D98:D102"/>
+    <mergeCell ref="D46:D52"/>
     <mergeCell ref="D77:D80"/>
     <mergeCell ref="D54:D57"/>
     <mergeCell ref="D67:D70"/>
     <mergeCell ref="D63:D65"/>
     <mergeCell ref="D59:D61"/>
     <mergeCell ref="D72:D75"/>
-    <mergeCell ref="D142:D146"/>
-    <mergeCell ref="D157:D165"/>
-    <mergeCell ref="D148:D155"/>
     <mergeCell ref="D2:D6"/>
     <mergeCell ref="D8:D11"/>
     <mergeCell ref="D40:D44"/>
@@ -13080,16 +13228,19 @@
     <mergeCell ref="D28:D31"/>
     <mergeCell ref="D23:D26"/>
     <mergeCell ref="D82:D85"/>
-    <mergeCell ref="D87:D90"/>
-    <mergeCell ref="D92:D96"/>
-    <mergeCell ref="D98:D102"/>
-    <mergeCell ref="D46:D52"/>
     <mergeCell ref="D197:D201"/>
     <mergeCell ref="D203:D207"/>
     <mergeCell ref="D167:D175"/>
     <mergeCell ref="D177:D186"/>
     <mergeCell ref="D188:D190"/>
     <mergeCell ref="D192:D195"/>
+    <mergeCell ref="D142:D146"/>
+    <mergeCell ref="D157:D165"/>
+    <mergeCell ref="D148:D155"/>
+    <mergeCell ref="D291:D295"/>
+    <mergeCell ref="D297:D302"/>
+    <mergeCell ref="D304:D310"/>
+    <mergeCell ref="D312:D319"/>
     <mergeCell ref="D276:D278"/>
     <mergeCell ref="D280:D283"/>
     <mergeCell ref="D285:D289"/>
@@ -13097,19 +13248,18 @@
     <mergeCell ref="D225:D240"/>
     <mergeCell ref="D242:D258"/>
     <mergeCell ref="D260:D274"/>
-    <mergeCell ref="D321:D327"/>
-    <mergeCell ref="D329:D333"/>
-    <mergeCell ref="D335:D340"/>
-    <mergeCell ref="D291:D295"/>
-    <mergeCell ref="D297:D302"/>
-    <mergeCell ref="D304:D310"/>
-    <mergeCell ref="D312:D319"/>
     <mergeCell ref="D368:D373"/>
     <mergeCell ref="D375:D379"/>
     <mergeCell ref="D342:D348"/>
     <mergeCell ref="D350:D355"/>
     <mergeCell ref="D357:D360"/>
     <mergeCell ref="D362:D366"/>
+    <mergeCell ref="D321:D327"/>
+    <mergeCell ref="D329:D333"/>
+    <mergeCell ref="D335:D340"/>
+    <mergeCell ref="D467:D470"/>
+    <mergeCell ref="D472:D475"/>
+    <mergeCell ref="D477:D480"/>
     <mergeCell ref="D440:D443"/>
     <mergeCell ref="D445:D448"/>
     <mergeCell ref="D414:D417"/>
@@ -13118,44 +13268,42 @@
     <mergeCell ref="D426:D429"/>
     <mergeCell ref="D431:D433"/>
     <mergeCell ref="D435:D438"/>
-    <mergeCell ref="D490:D493"/>
-    <mergeCell ref="D495:D498"/>
-    <mergeCell ref="D500:D503"/>
-    <mergeCell ref="D505:D508"/>
-    <mergeCell ref="D450:D453"/>
-    <mergeCell ref="D455:D459"/>
-    <mergeCell ref="D480:D483"/>
-    <mergeCell ref="D485:D488"/>
-    <mergeCell ref="D461:D463"/>
-    <mergeCell ref="D465:D468"/>
-    <mergeCell ref="D470:D473"/>
-    <mergeCell ref="D475:D478"/>
-    <mergeCell ref="D533:D535"/>
-    <mergeCell ref="D537:D540"/>
-    <mergeCell ref="D542:D544"/>
-    <mergeCell ref="D546:D549"/>
-    <mergeCell ref="D510:D513"/>
-    <mergeCell ref="D515:D517"/>
-    <mergeCell ref="D519:D522"/>
-    <mergeCell ref="D524:D527"/>
-    <mergeCell ref="D529:D531"/>
-    <mergeCell ref="D569:D572"/>
-    <mergeCell ref="D551:D553"/>
-    <mergeCell ref="D555:D557"/>
-    <mergeCell ref="D559:D562"/>
-    <mergeCell ref="D564:D567"/>
+    <mergeCell ref="D603:D608"/>
+    <mergeCell ref="D450:D455"/>
+    <mergeCell ref="D571:D574"/>
+    <mergeCell ref="D553:D555"/>
+    <mergeCell ref="D557:D559"/>
+    <mergeCell ref="D561:D564"/>
+    <mergeCell ref="D566:D569"/>
+    <mergeCell ref="D535:D537"/>
+    <mergeCell ref="D539:D542"/>
+    <mergeCell ref="D544:D546"/>
+    <mergeCell ref="D548:D551"/>
+    <mergeCell ref="D512:D515"/>
+    <mergeCell ref="D517:D519"/>
+    <mergeCell ref="D521:D524"/>
+    <mergeCell ref="D526:D529"/>
+    <mergeCell ref="D531:D533"/>
+    <mergeCell ref="D492:D495"/>
+    <mergeCell ref="D497:D500"/>
+    <mergeCell ref="D502:D505"/>
+    <mergeCell ref="D507:D510"/>
+    <mergeCell ref="D457:D461"/>
+    <mergeCell ref="D482:D485"/>
+    <mergeCell ref="D487:D490"/>
+    <mergeCell ref="D463:D465"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J479" xr:uid="{00000000-0002-0000-0100-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J481" xr:uid="{00000000-0002-0000-0100-000004000000}">
       <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J480:J676" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J482:J678" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Leona, Parvathy, Raziya, Rijo"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K721" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K723" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Pass, Fail, Blocked"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B598" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B600 B603:B606" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"CAS/ Appointment, Out Patient, Care Desk, EMR, Lab &amp; General Billing, Pharmacy Billing, Lab Results, Radiology, Insurance Desk, Casualty, MRD, In Patient, Nursing Station, Theatre, Indent, Store Management"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{4613EE89-5E19-42FA-AB1F-2526DEDE59AC}">
